--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -451,17 +451,13 @@
         <v>81.51783333333336</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81.98</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>81.53900000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K3" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>81.56016666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>81.5765</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>81.598</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>81.60999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>81.61716666666665</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>81.6243333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K9" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>81.63149999999996</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K10" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>81.63949999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>81.6466666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K12" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>81.65049999999994</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>81.65299999999993</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="K14" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>81.66799999999992</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>82</v>
-      </c>
-      <c r="K15" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>81.67883333333324</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>82</v>
-      </c>
-      <c r="K16" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>81.68966666666658</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>82</v>
-      </c>
-      <c r="K17" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>81.6939999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="K18" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1184,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1219,22 +1081,14 @@
         <v>81.71216666666656</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="K20" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1262,22 +1116,14 @@
         <v>81.73333333333325</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>82</v>
-      </c>
-      <c r="K21" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1305,22 +1151,14 @@
         <v>81.73349999999991</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>82</v>
-      </c>
-      <c r="K22" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1348,22 +1186,14 @@
         <v>81.73199999999991</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1391,22 +1221,14 @@
         <v>81.73033333333323</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1434,22 +1256,14 @@
         <v>81.74366666666657</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1477,22 +1291,14 @@
         <v>81.75533333333324</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1326,14 @@
         <v>81.77016666666655</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1569,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1610,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1469,11 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,16 +1507,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>0.9989033910709929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1771,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2051,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2261,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4183,13 +3951,17 @@
         <v>82.1663333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="K102" t="n">
+        <v>82.48999999999999</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4224,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4259,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.98</v>
+        <v>81.97</v>
       </c>
       <c r="C2" t="n">
-        <v>81.98</v>
+        <v>81.97</v>
       </c>
       <c r="D2" t="n">
-        <v>81.98</v>
+        <v>81.97</v>
       </c>
       <c r="E2" t="n">
-        <v>81.98</v>
+        <v>81.97</v>
       </c>
       <c r="F2" t="n">
-        <v>659.6101</v>
+        <v>18124.39</v>
       </c>
       <c r="G2" t="n">
-        <v>81.51783333333336</v>
+        <v>81.49733333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>81.98</v>
       </c>
       <c r="D3" t="n">
-        <v>82.27</v>
+        <v>81.98</v>
       </c>
       <c r="E3" t="n">
         <v>81.98</v>
       </c>
       <c r="F3" t="n">
-        <v>16529.88461253191</v>
+        <v>659.6101</v>
       </c>
       <c r="G3" t="n">
-        <v>81.53900000000002</v>
+        <v>81.51783333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>81.98</v>
       </c>
       <c r="D4" t="n">
-        <v>82.09999999999999</v>
+        <v>82.27</v>
       </c>
       <c r="E4" t="n">
         <v>81.98</v>
       </c>
       <c r="F4" t="n">
-        <v>9355</v>
+        <v>16529.88461253191</v>
       </c>
       <c r="G4" t="n">
-        <v>81.56016666666667</v>
+        <v>81.53900000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81.98999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C5" t="n">
         <v>81.98</v>
       </c>
       <c r="D5" t="n">
-        <v>81.98999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>81.98</v>
       </c>
       <c r="F5" t="n">
-        <v>2329</v>
+        <v>9355</v>
       </c>
       <c r="G5" t="n">
-        <v>81.5765</v>
+        <v>81.56016666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C6" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D6" t="n">
         <v>81.98999999999999</v>
       </c>
-      <c r="D6" t="n">
-        <v>82</v>
-      </c>
       <c r="E6" t="n">
-        <v>81.98999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F6" t="n">
-        <v>541.2868999999999</v>
+        <v>2329</v>
       </c>
       <c r="G6" t="n">
-        <v>81.598</v>
+        <v>81.5765</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C7" t="n">
         <v>81.98999999999999</v>
       </c>
-      <c r="C7" t="n">
-        <v>81.98</v>
-      </c>
       <c r="D7" t="n">
+        <v>82</v>
+      </c>
+      <c r="E7" t="n">
         <v>81.98999999999999</v>
       </c>
-      <c r="E7" t="n">
-        <v>81.98</v>
-      </c>
       <c r="F7" t="n">
-        <v>46191.8509</v>
+        <v>541.2868999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>81.60999999999999</v>
+        <v>81.598</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81.98</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>81.98</v>
       </c>
       <c r="D8" t="n">
-        <v>81.98</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>81.98</v>
       </c>
       <c r="F8" t="n">
-        <v>47135.5802</v>
+        <v>46191.8509</v>
       </c>
       <c r="G8" t="n">
-        <v>81.61716666666665</v>
+        <v>81.60999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>81.98</v>
       </c>
       <c r="F9" t="n">
-        <v>11738.2464</v>
+        <v>47135.5802</v>
       </c>
       <c r="G9" t="n">
-        <v>81.6243333333333</v>
+        <v>81.61716666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>81.98</v>
       </c>
       <c r="F10" t="n">
-        <v>36897.0586</v>
+        <v>11738.2464</v>
       </c>
       <c r="G10" t="n">
-        <v>81.63149999999996</v>
+        <v>81.6243333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>81.98</v>
       </c>
       <c r="F11" t="n">
-        <v>980.2546</v>
+        <v>36897.0586</v>
       </c>
       <c r="G11" t="n">
-        <v>81.63949999999996</v>
+        <v>81.63149999999996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>81.98</v>
       </c>
       <c r="F12" t="n">
-        <v>554.2671</v>
+        <v>980.2546</v>
       </c>
       <c r="G12" t="n">
-        <v>81.6466666666666</v>
+        <v>81.63949999999996</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.98999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C13" t="n">
         <v>81.98</v>
       </c>
       <c r="D13" t="n">
-        <v>81.98999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="E13" t="n">
         <v>81.98</v>
       </c>
       <c r="F13" t="n">
-        <v>47304.2285</v>
+        <v>554.2671</v>
       </c>
       <c r="G13" t="n">
-        <v>81.65049999999994</v>
+        <v>81.6466666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.98</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>81.98</v>
       </c>
       <c r="D14" t="n">
-        <v>81.98</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>81.98</v>
       </c>
       <c r="F14" t="n">
-        <v>23941.7739</v>
+        <v>47304.2285</v>
       </c>
       <c r="G14" t="n">
-        <v>81.65299999999993</v>
+        <v>81.65049999999994</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="C15" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>23941.7739</v>
       </c>
       <c r="G15" t="n">
-        <v>81.66799999999992</v>
+        <v>81.65299999999993</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>3341.7523</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>81.67883333333324</v>
+        <v>81.66799999999992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>1002.5183</v>
+        <v>3341.7523</v>
       </c>
       <c r="G17" t="n">
-        <v>81.68966666666658</v>
+        <v>81.67883333333324</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>81.61</v>
+        <v>82</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>1002.5183</v>
       </c>
       <c r="G18" t="n">
-        <v>81.6939999999999</v>
+        <v>81.68966666666658</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81.62</v>
+        <v>81.61</v>
       </c>
       <c r="C19" t="n">
-        <v>81.62</v>
+        <v>81.61</v>
       </c>
       <c r="D19" t="n">
-        <v>81.62</v>
+        <v>81.61</v>
       </c>
       <c r="E19" t="n">
-        <v>81.62</v>
+        <v>81.61</v>
       </c>
       <c r="F19" t="n">
-        <v>18350</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>81.70183333333324</v>
+        <v>81.6939999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>81.62</v>
       </c>
       <c r="F20" t="n">
-        <v>9886.704100000001</v>
+        <v>18350</v>
       </c>
       <c r="G20" t="n">
-        <v>81.71216666666656</v>
+        <v>81.70183333333324</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82</v>
+        <v>81.62</v>
       </c>
       <c r="C21" t="n">
-        <v>82</v>
+        <v>81.62</v>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81.62</v>
       </c>
       <c r="E21" t="n">
-        <v>82</v>
+        <v>81.62</v>
       </c>
       <c r="F21" t="n">
-        <v>4594.0048</v>
+        <v>9886.704100000001</v>
       </c>
       <c r="G21" t="n">
-        <v>81.73333333333325</v>
+        <v>81.71216666666656</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,19 +1145,23 @@
         <v>82</v>
       </c>
       <c r="F22" t="n">
-        <v>21295.5612</v>
+        <v>4594.0048</v>
       </c>
       <c r="G22" t="n">
-        <v>81.73349999999991</v>
+        <v>81.73333333333325</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="K22" t="n">
+        <v>81.62</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1168,22 +1172,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81.70999999999999</v>
+        <v>82</v>
       </c>
       <c r="C23" t="n">
-        <v>81.70999999999999</v>
+        <v>82</v>
       </c>
       <c r="D23" t="n">
-        <v>81.70999999999999</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
-        <v>81.70999999999999</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>21295.5612</v>
       </c>
       <c r="G23" t="n">
-        <v>81.73199999999991</v>
+        <v>81.73349999999991</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1196,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,19 +1216,19 @@
         <v>81.70999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>81.7</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="D24" t="n">
         <v>81.70999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>81.7</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>9826.457</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>81.73033333333323</v>
+        <v>81.73199999999991</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1237,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82.3</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>82.3</v>
+        <v>81.7</v>
       </c>
       <c r="D25" t="n">
-        <v>82.3</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>82.3</v>
+        <v>81.7</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>9826.457</v>
       </c>
       <c r="G25" t="n">
-        <v>81.74366666666657</v>
+        <v>81.73033333333323</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="C26" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="D26" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="E26" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="F26" t="n">
-        <v>4135.1923</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>81.75533333333324</v>
+        <v>81.74366666666657</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1336,10 @@
         <v>82.2</v>
       </c>
       <c r="F27" t="n">
-        <v>6.09</v>
+        <v>4135.1923</v>
       </c>
       <c r="G27" t="n">
-        <v>81.77016666666655</v>
+        <v>81.75533333333324</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1362,19 @@
         <v>82.2</v>
       </c>
       <c r="C28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="D28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="E28" t="n">
         <v>82.2</v>
       </c>
       <c r="F28" t="n">
-        <v>365.7177</v>
+        <v>6.09</v>
       </c>
       <c r="G28" t="n">
-        <v>81.77549999999991</v>
+        <v>81.77016666666655</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82.29000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C29" t="n">
-        <v>82.29000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D29" t="n">
-        <v>82.29000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E29" t="n">
-        <v>82.29000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F29" t="n">
-        <v>13038.0607</v>
+        <v>365.7177</v>
       </c>
       <c r="G29" t="n">
-        <v>81.78066666666658</v>
+        <v>81.77549999999991</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1441,10 @@
         <v>82.29000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>31832.4044</v>
+        <v>13038.0607</v>
       </c>
       <c r="G30" t="n">
-        <v>81.79383333333324</v>
+        <v>81.78066666666658</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,28 +1464,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82.3</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>82.3</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>82.3</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>82.3</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>214.9548</v>
+        <v>31832.4044</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81166666666658</v>
+        <v>81.79383333333324</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1495,16 +1511,16 @@
         <v>82.3</v>
       </c>
       <c r="F32" t="n">
-        <v>6.5742</v>
+        <v>214.9548</v>
       </c>
       <c r="G32" t="n">
-        <v>81.83133333333326</v>
+        <v>81.81166666666658</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="C33" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="D33" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="E33" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2823</v>
+        <v>6.5742</v>
       </c>
       <c r="G33" t="n">
-        <v>81.84299999999992</v>
+        <v>81.83133333333326</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.70999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C34" t="n">
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="D34" t="n">
-        <v>81.70999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="E34" t="n">
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="F34" t="n">
-        <v>23.96</v>
+        <v>0.2823</v>
       </c>
       <c r="G34" t="n">
-        <v>81.84633333333325</v>
+        <v>81.84299999999992</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="D35" t="n">
-        <v>82</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>23.96</v>
       </c>
       <c r="G35" t="n">
-        <v>81.85466666666659</v>
+        <v>81.84633333333325</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C36" t="n">
         <v>82</v>
@@ -1632,13 +1648,13 @@
         <v>82</v>
       </c>
       <c r="E36" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="F36" t="n">
-        <v>1920</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>81.86299999999991</v>
+        <v>81.85466666666659</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>82</v>
@@ -1667,23 +1683,29 @@
         <v>82</v>
       </c>
       <c r="E37" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>23828.5837</v>
+        <v>1920</v>
       </c>
       <c r="G37" t="n">
-        <v>81.87133333333325</v>
+        <v>81.86299999999991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>82</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,32 +1715,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="C38" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D38" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E38" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F38" t="n">
-        <v>3792.7441</v>
+        <v>23828.5837</v>
       </c>
       <c r="G38" t="n">
-        <v>81.88466666666659</v>
+        <v>81.87133333333325</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>82</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,20 +1768,26 @@
         <v>82.3</v>
       </c>
       <c r="F39" t="n">
-        <v>6880.7251</v>
+        <v>3792.7441</v>
       </c>
       <c r="G39" t="n">
-        <v>81.90616666666659</v>
+        <v>81.88466666666659</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>82</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,29 +1800,35 @@
         <v>82.3</v>
       </c>
       <c r="C40" t="n">
-        <v>82.39</v>
+        <v>82.3</v>
       </c>
       <c r="D40" t="n">
-        <v>82.39</v>
+        <v>82.3</v>
       </c>
       <c r="E40" t="n">
         <v>82.3</v>
       </c>
       <c r="F40" t="n">
-        <v>27102.0922</v>
+        <v>6880.7251</v>
       </c>
       <c r="G40" t="n">
-        <v>81.92749999999994</v>
+        <v>81.90616666666659</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>82.3</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,32 +1838,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.41</v>
+        <v>82.3</v>
       </c>
       <c r="C41" t="n">
-        <v>82.41</v>
+        <v>82.39</v>
       </c>
       <c r="D41" t="n">
-        <v>82.41</v>
+        <v>82.39</v>
       </c>
       <c r="E41" t="n">
-        <v>82.41</v>
+        <v>82.3</v>
       </c>
       <c r="F41" t="n">
-        <v>546.3337</v>
+        <v>27102.0922</v>
       </c>
       <c r="G41" t="n">
-        <v>81.93633333333327</v>
+        <v>81.92749999999994</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1880,19 @@
         <v>82.41</v>
       </c>
       <c r="C42" t="n">
-        <v>82.75</v>
+        <v>82.41</v>
       </c>
       <c r="D42" t="n">
-        <v>82.75</v>
+        <v>82.41</v>
       </c>
       <c r="E42" t="n">
         <v>82.41</v>
       </c>
       <c r="F42" t="n">
-        <v>1011</v>
+        <v>546.3337</v>
       </c>
       <c r="G42" t="n">
-        <v>81.95683333333325</v>
+        <v>81.93633333333327</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1902,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1916,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>82.3</v>
+        <v>82.41</v>
       </c>
       <c r="C43" t="n">
-        <v>82.3</v>
+        <v>82.75</v>
       </c>
       <c r="D43" t="n">
-        <v>82.3</v>
+        <v>82.75</v>
       </c>
       <c r="E43" t="n">
-        <v>82.3</v>
+        <v>82.41</v>
       </c>
       <c r="F43" t="n">
-        <v>25.5165</v>
+        <v>1011</v>
       </c>
       <c r="G43" t="n">
-        <v>81.97099999999993</v>
+        <v>81.95683333333325</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1941,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1955,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82.75</v>
+        <v>82.3</v>
       </c>
       <c r="C44" t="n">
-        <v>82.84999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D44" t="n">
-        <v>82.84999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E44" t="n">
-        <v>82.75</v>
+        <v>82.3</v>
       </c>
       <c r="F44" t="n">
-        <v>9.2483</v>
+        <v>25.5165</v>
       </c>
       <c r="G44" t="n">
-        <v>81.99433333333327</v>
+        <v>81.97099999999993</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1980,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +1997,19 @@
         <v>82.75</v>
       </c>
       <c r="C45" t="n">
-        <v>82.75</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>82.75</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>82.75</v>
       </c>
       <c r="F45" t="n">
-        <v>5.7517</v>
+        <v>9.2483</v>
       </c>
       <c r="G45" t="n">
-        <v>82.01599999999993</v>
+        <v>81.99433333333327</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2019,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2033,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82.22</v>
+        <v>82.75</v>
       </c>
       <c r="C46" t="n">
-        <v>82.11</v>
+        <v>82.75</v>
       </c>
       <c r="D46" t="n">
-        <v>82.22</v>
+        <v>82.75</v>
       </c>
       <c r="E46" t="n">
-        <v>82.11</v>
+        <v>82.75</v>
       </c>
       <c r="F46" t="n">
-        <v>17091.5331</v>
+        <v>5.7517</v>
       </c>
       <c r="G46" t="n">
-        <v>82.02583333333327</v>
+        <v>82.01599999999993</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2058,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,32 +2072,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82.3</v>
+        <v>82.22</v>
       </c>
       <c r="C47" t="n">
         <v>82.11</v>
       </c>
       <c r="D47" t="n">
-        <v>82.3</v>
+        <v>82.22</v>
       </c>
       <c r="E47" t="n">
         <v>82.11</v>
       </c>
       <c r="F47" t="n">
-        <v>48397.677</v>
+        <v>17091.5331</v>
       </c>
       <c r="G47" t="n">
-        <v>82.02933333333326</v>
+        <v>82.02583333333327</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2111,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="C48" t="n">
-        <v>82.2</v>
+        <v>82.11</v>
       </c>
       <c r="D48" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="E48" t="n">
-        <v>82.2</v>
+        <v>82.11</v>
       </c>
       <c r="F48" t="n">
-        <v>6000</v>
+        <v>48397.677</v>
       </c>
       <c r="G48" t="n">
-        <v>82.03483333333325</v>
+        <v>82.02933333333326</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2136,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2162,10 @@
         <v>82.2</v>
       </c>
       <c r="F49" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="n">
-        <v>82.0481666666666</v>
+        <v>82.03483333333325</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2175,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2189,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>82.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C50" t="n">
         <v>82.2</v>
       </c>
       <c r="D50" t="n">
-        <v>82.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="E50" t="n">
         <v>82.2</v>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G50" t="n">
-        <v>82.06149999999994</v>
+        <v>82.0481666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2214,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2228,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82.2</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>82.2</v>
       </c>
       <c r="D51" t="n">
-        <v>82.2</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>82.2</v>
       </c>
       <c r="F51" t="n">
-        <v>8416.2132</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>82.06833333333326</v>
+        <v>82.06149999999994</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2253,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2279,10 @@
         <v>82.2</v>
       </c>
       <c r="F52" t="n">
-        <v>544.908</v>
+        <v>8416.2132</v>
       </c>
       <c r="G52" t="n">
-        <v>82.07349999999992</v>
+        <v>82.06833333333326</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2292,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2318,10 @@
         <v>82.2</v>
       </c>
       <c r="F53" t="n">
-        <v>1614.092</v>
+        <v>544.908</v>
       </c>
       <c r="G53" t="n">
-        <v>82.08833333333324</v>
+        <v>82.07349999999992</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2331,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2345,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="C54" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="D54" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="E54" t="n">
-        <v>82.48</v>
+        <v>82.2</v>
       </c>
       <c r="F54" t="n">
-        <v>363.7247</v>
+        <v>1614.092</v>
       </c>
       <c r="G54" t="n">
-        <v>82.09683333333324</v>
+        <v>82.08833333333324</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2370,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2384,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.5</v>
+        <v>82.48</v>
       </c>
       <c r="C55" t="n">
-        <v>82.5</v>
+        <v>82.48</v>
       </c>
       <c r="D55" t="n">
-        <v>82.5</v>
+        <v>82.48</v>
       </c>
       <c r="E55" t="n">
-        <v>82.5</v>
+        <v>82.48</v>
       </c>
       <c r="F55" t="n">
-        <v>60.3907</v>
+        <v>363.7247</v>
       </c>
       <c r="G55" t="n">
-        <v>82.10583333333324</v>
+        <v>82.09683333333324</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2409,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2423,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="C56" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="D56" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="E56" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="F56" t="n">
-        <v>242.1601</v>
+        <v>60.3907</v>
       </c>
       <c r="G56" t="n">
-        <v>82.11633333333323</v>
+        <v>82.10583333333324</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2448,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2462,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>82.51000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C57" t="n">
-        <v>82.51000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="D57" t="n">
-        <v>82.51000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E57" t="n">
-        <v>82.51000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="F57" t="n">
-        <v>364.39</v>
+        <v>242.1601</v>
       </c>
       <c r="G57" t="n">
-        <v>82.1254999999999</v>
+        <v>82.11633333333323</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2487,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2513,10 @@
         <v>82.51000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>493.04</v>
+        <v>364.39</v>
       </c>
       <c r="G58" t="n">
-        <v>82.13433333333325</v>
+        <v>82.1254999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2526,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2540,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.5</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>82.5</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>82.5</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>82.5</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>242.4243</v>
+        <v>493.04</v>
       </c>
       <c r="G59" t="n">
-        <v>82.14316666666657</v>
+        <v>82.13433333333325</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2565,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2579,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="C60" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="D60" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="E60" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="F60" t="n">
-        <v>26.6395</v>
+        <v>242.4243</v>
       </c>
       <c r="G60" t="n">
-        <v>82.15016666666658</v>
+        <v>82.14316666666657</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2604,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2630,10 @@
         <v>82.39</v>
       </c>
       <c r="F61" t="n">
-        <v>9147.360500000001</v>
+        <v>26.6395</v>
       </c>
       <c r="G61" t="n">
-        <v>82.15716666666658</v>
+        <v>82.15016666666658</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2643,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2669,10 @@
         <v>82.39</v>
       </c>
       <c r="F62" t="n">
-        <v>1872.4388</v>
+        <v>9147.360500000001</v>
       </c>
       <c r="G62" t="n">
-        <v>82.16399999999993</v>
+        <v>82.15716666666658</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2682,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2708,10 @@
         <v>82.39</v>
       </c>
       <c r="F63" t="n">
-        <v>3780.896</v>
+        <v>1872.4388</v>
       </c>
       <c r="G63" t="n">
-        <v>82.17083333333328</v>
+        <v>82.16399999999993</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2721,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2747,10 @@
         <v>82.39</v>
       </c>
       <c r="F64" t="n">
-        <v>11342.9945</v>
+        <v>3780.896</v>
       </c>
       <c r="G64" t="n">
-        <v>82.17766666666662</v>
+        <v>82.17083333333328</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2760,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2786,10 @@
         <v>82.39</v>
       </c>
       <c r="F65" t="n">
-        <v>13237.1946</v>
+        <v>11342.9945</v>
       </c>
       <c r="G65" t="n">
-        <v>82.18449999999997</v>
+        <v>82.17766666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2799,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2825,10 @@
         <v>82.39</v>
       </c>
       <c r="F66" t="n">
-        <v>9047.6379</v>
+        <v>13237.1946</v>
       </c>
       <c r="G66" t="n">
-        <v>82.19116666666665</v>
+        <v>82.18449999999997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2838,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2852,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82.2</v>
+        <v>82.39</v>
       </c>
       <c r="C67" t="n">
-        <v>82.09999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="D67" t="n">
-        <v>82.2</v>
+        <v>82.39</v>
       </c>
       <c r="E67" t="n">
-        <v>82.09999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="F67" t="n">
-        <v>1474.5394</v>
+        <v>9047.6379</v>
       </c>
       <c r="G67" t="n">
-        <v>82.19316666666666</v>
+        <v>82.19116666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2877,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2891,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C68" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="E68" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4414.077</v>
+        <v>1474.5394</v>
       </c>
       <c r="G68" t="n">
-        <v>82.19516666666667</v>
+        <v>82.19316666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2916,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2930,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>5888.6165</v>
+        <v>4414.077</v>
       </c>
       <c r="G69" t="n">
-        <v>82.19566666666668</v>
+        <v>82.19516666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2955,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2969,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>2320.0008</v>
+        <v>5888.6165</v>
       </c>
       <c r="G70" t="n">
-        <v>82.19600000000001</v>
+        <v>82.19566666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2994,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3008,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="C71" t="n">
         <v>82</v>
       </c>
       <c r="D71" t="n">
-        <v>82.81999999999999</v>
+        <v>82</v>
       </c>
       <c r="E71" t="n">
         <v>82</v>
       </c>
       <c r="F71" t="n">
-        <v>97202.9734</v>
+        <v>2320.0008</v>
       </c>
       <c r="G71" t="n">
-        <v>82.19633333333336</v>
+        <v>82.19600000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3033,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3047,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82.11</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="D72" t="n">
-        <v>82.11</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="F72" t="n">
-        <v>64.6551</v>
+        <v>97202.9734</v>
       </c>
       <c r="G72" t="n">
-        <v>82.19833333333337</v>
+        <v>82.19633333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3072,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3086,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.09999999999999</v>
+        <v>82.11</v>
       </c>
       <c r="C73" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>82.09999999999999</v>
+        <v>82.11</v>
       </c>
       <c r="E73" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>4315.6988</v>
+        <v>64.6551</v>
       </c>
       <c r="G73" t="n">
-        <v>82.20033333333339</v>
+        <v>82.19833333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3111,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3128,19 @@
         <v>82.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D74" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>82.01000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>731.6547</v>
+        <v>4315.6988</v>
       </c>
       <c r="G74" t="n">
-        <v>82.20083333333339</v>
+        <v>82.20033333333339</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3150,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3164,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>82.31</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>82.31</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>82.2</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>4972.4885</v>
+        <v>731.6547</v>
       </c>
       <c r="G75" t="n">
-        <v>82.20600000000007</v>
+        <v>82.20083333333339</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3189,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,19 +3203,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>82.01000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C76" t="n">
-        <v>82</v>
+        <v>82.31</v>
       </c>
       <c r="D76" t="n">
-        <v>82.01000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="E76" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="F76" t="n">
-        <v>849.2478</v>
+        <v>4972.4885</v>
       </c>
       <c r="G76" t="n">
         <v>82.20600000000007</v>
@@ -3048,7 +3228,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,19 +3242,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E77" t="n">
         <v>82</v>
       </c>
       <c r="F77" t="n">
-        <v>8720.9123</v>
+        <v>849.2478</v>
       </c>
       <c r="G77" t="n">
         <v>82.20600000000007</v>
@@ -3083,7 +3267,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3281,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>82.20999999999999</v>
+        <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>82.20999999999999</v>
+        <v>82</v>
       </c>
       <c r="D78" t="n">
-        <v>82.20999999999999</v>
+        <v>82</v>
       </c>
       <c r="E78" t="n">
-        <v>82.20999999999999</v>
+        <v>82</v>
       </c>
       <c r="F78" t="n">
-        <v>1643.493</v>
+        <v>8720.9123</v>
       </c>
       <c r="G78" t="n">
-        <v>82.21600000000008</v>
+        <v>82.20600000000007</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3306,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3332,10 @@
         <v>82.20999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>2010</v>
+        <v>1643.493</v>
       </c>
       <c r="G79" t="n">
-        <v>82.22583333333341</v>
+        <v>82.21600000000008</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3345,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3359,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>82.01000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>82.01000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>82.01000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>82.01000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>7933.499</v>
+        <v>2010</v>
       </c>
       <c r="G80" t="n">
-        <v>82.23233333333341</v>
+        <v>82.22583333333341</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3384,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3410,10 @@
         <v>82.01000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>515</v>
+        <v>7933.499</v>
       </c>
       <c r="G81" t="n">
-        <v>82.23250000000009</v>
+        <v>82.23233333333341</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3423,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,16 +3440,16 @@
         <v>82.01000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D82" t="n">
         <v>82.01000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>86076.72530000001</v>
+        <v>515</v>
       </c>
       <c r="G82" t="n">
         <v>82.23250000000009</v>
@@ -3258,7 +3462,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3476,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>82</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>82</v>
       </c>
       <c r="F83" t="n">
-        <v>11500</v>
+        <v>86076.72530000001</v>
       </c>
       <c r="G83" t="n">
-        <v>82.23733333333342</v>
+        <v>82.23250000000009</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3501,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3527,10 @@
         <v>82</v>
       </c>
       <c r="F84" t="n">
-        <v>24316.8021</v>
+        <v>11500</v>
       </c>
       <c r="G84" t="n">
-        <v>82.24233333333342</v>
+        <v>82.23733333333342</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3540,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3554,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="C85" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="D85" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="E85" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="F85" t="n">
-        <v>20836.5505</v>
+        <v>24316.8021</v>
       </c>
       <c r="G85" t="n">
-        <v>82.23900000000009</v>
+        <v>82.24233333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3579,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3605,10 @@
         <v>82.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>184.1534</v>
+        <v>20836.5505</v>
       </c>
       <c r="G86" t="n">
-        <v>82.23733333333344</v>
+        <v>82.23900000000009</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3618,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3632,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>37.3756</v>
+        <v>184.1534</v>
       </c>
       <c r="G87" t="n">
-        <v>82.23400000000011</v>
+        <v>82.23733333333344</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3657,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3671,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="C88" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="D88" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="E88" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="F88" t="n">
-        <v>774</v>
+        <v>37.3756</v>
       </c>
       <c r="G88" t="n">
-        <v>82.22766666666676</v>
+        <v>82.23400000000011</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3696,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +3713,19 @@
         <v>81.92</v>
       </c>
       <c r="C89" t="n">
-        <v>81.91</v>
+        <v>81.92</v>
       </c>
       <c r="D89" t="n">
         <v>81.92</v>
       </c>
       <c r="E89" t="n">
-        <v>81.91</v>
+        <v>81.92</v>
       </c>
       <c r="F89" t="n">
-        <v>12394.5056</v>
+        <v>774</v>
       </c>
       <c r="G89" t="n">
-        <v>82.22133333333343</v>
+        <v>82.22766666666676</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3735,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3749,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>81.91</v>
+        <v>81.92</v>
       </c>
       <c r="C90" t="n">
         <v>81.91</v>
       </c>
       <c r="D90" t="n">
-        <v>81.91</v>
+        <v>81.92</v>
       </c>
       <c r="E90" t="n">
         <v>81.91</v>
       </c>
       <c r="F90" t="n">
-        <v>896.9999</v>
+        <v>12394.5056</v>
       </c>
       <c r="G90" t="n">
-        <v>82.2150000000001</v>
+        <v>82.22133333333343</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3774,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3800,10 @@
         <v>81.91</v>
       </c>
       <c r="F91" t="n">
-        <v>23234.455</v>
+        <v>896.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>82.2085000000001</v>
+        <v>82.2150000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3813,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3830,19 @@
         <v>81.91</v>
       </c>
       <c r="C92" t="n">
-        <v>81.83</v>
+        <v>81.91</v>
       </c>
       <c r="D92" t="n">
         <v>81.91</v>
       </c>
       <c r="E92" t="n">
-        <v>81.83</v>
+        <v>81.91</v>
       </c>
       <c r="F92" t="n">
-        <v>19680.5733</v>
+        <v>23234.455</v>
       </c>
       <c r="G92" t="n">
-        <v>82.20066666666676</v>
+        <v>82.2085000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3852,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3866,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>81.83</v>
+        <v>81.91</v>
       </c>
       <c r="C93" t="n">
         <v>81.83</v>
       </c>
       <c r="D93" t="n">
-        <v>81.83</v>
+        <v>81.91</v>
       </c>
       <c r="E93" t="n">
         <v>81.83</v>
       </c>
       <c r="F93" t="n">
-        <v>1628.6999</v>
+        <v>19680.5733</v>
       </c>
       <c r="G93" t="n">
-        <v>82.19450000000009</v>
+        <v>82.20066666666676</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3891,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3905,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>81.84</v>
+        <v>81.83</v>
       </c>
       <c r="C94" t="n">
-        <v>81.84</v>
+        <v>81.83</v>
       </c>
       <c r="D94" t="n">
-        <v>81.84</v>
+        <v>81.83</v>
       </c>
       <c r="E94" t="n">
-        <v>81.84</v>
+        <v>81.83</v>
       </c>
       <c r="F94" t="n">
-        <v>199.5</v>
+        <v>1628.6999</v>
       </c>
       <c r="G94" t="n">
-        <v>82.19683333333343</v>
+        <v>82.19450000000009</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3930,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3944,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>81.90000000000001</v>
+        <v>81.84</v>
       </c>
       <c r="C95" t="n">
-        <v>81.90000000000001</v>
+        <v>81.84</v>
       </c>
       <c r="D95" t="n">
-        <v>81.90000000000001</v>
+        <v>81.84</v>
       </c>
       <c r="E95" t="n">
-        <v>81.90000000000001</v>
+        <v>81.84</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>199.5</v>
       </c>
       <c r="G95" t="n">
-        <v>82.19516666666676</v>
+        <v>82.19683333333343</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3969,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3995,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G96" t="n">
-        <v>82.19350000000009</v>
+        <v>82.19516666666676</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4008,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +4034,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>597</v>
+        <v>56</v>
       </c>
       <c r="G97" t="n">
-        <v>82.19183333333341</v>
+        <v>82.19350000000009</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4047,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4073,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>298.5</v>
+        <v>597</v>
       </c>
       <c r="G98" t="n">
-        <v>82.18516666666673</v>
+        <v>82.19183333333341</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4086,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4100,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>81.84999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>81.84999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>81.84999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>81.84999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>99.5</v>
+        <v>298.5</v>
       </c>
       <c r="G99" t="n">
-        <v>82.17766666666674</v>
+        <v>82.18516666666673</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4125,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4139,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81.83</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>81.83</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>81.83</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>81.83</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>4972.4885</v>
+        <v>99.5</v>
       </c>
       <c r="G100" t="n">
-        <v>82.16833333333339</v>
+        <v>82.17766666666674</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4164,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4178,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>82.48999999999999</v>
+        <v>81.83</v>
       </c>
       <c r="C101" t="n">
-        <v>82.48999999999999</v>
+        <v>81.83</v>
       </c>
       <c r="D101" t="n">
-        <v>82.5</v>
+        <v>81.83</v>
       </c>
       <c r="E101" t="n">
-        <v>82.48999999999999</v>
+        <v>81.83</v>
       </c>
       <c r="F101" t="n">
-        <v>1623.0585</v>
+        <v>4972.4885</v>
       </c>
       <c r="G101" t="n">
-        <v>82.16966666666673</v>
+        <v>82.16833333333339</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4203,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,36 +4217,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="D102" t="n">
         <v>82.5</v>
       </c>
-      <c r="C102" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D102" t="n">
-        <v>82.55</v>
-      </c>
       <c r="E102" t="n">
-        <v>82.5</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>882.2646</v>
+        <v>1623.0585</v>
       </c>
       <c r="G102" t="n">
-        <v>82.1663333333334</v>
+        <v>82.16966666666673</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3972,7 +4256,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>82.55</v>
+        <v>82.5</v>
       </c>
       <c r="C103" t="n">
         <v>82.55</v>
@@ -3981,13 +4265,13 @@
         <v>82.55</v>
       </c>
       <c r="E103" t="n">
-        <v>82.55</v>
+        <v>82.5</v>
       </c>
       <c r="F103" t="n">
-        <v>846.9325</v>
+        <v>882.2646</v>
       </c>
       <c r="G103" t="n">
-        <v>82.17050000000008</v>
+        <v>82.1663333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3996,12 +4280,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>82.48999999999999</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4025,10 +4307,10 @@
         <v>82.55</v>
       </c>
       <c r="F104" t="n">
-        <v>1541.4305</v>
+        <v>846.9325</v>
       </c>
       <c r="G104" t="n">
-        <v>82.16550000000007</v>
+        <v>82.17050000000008</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4037,12 +4319,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>82.48999999999999</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -4054,22 +4334,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>82.59</v>
+        <v>82.55</v>
       </c>
       <c r="C105" t="n">
-        <v>82.59</v>
+        <v>82.55</v>
       </c>
       <c r="D105" t="n">
-        <v>82.59</v>
+        <v>82.55</v>
       </c>
       <c r="E105" t="n">
-        <v>82.59</v>
+        <v>82.55</v>
       </c>
       <c r="F105" t="n">
-        <v>7527.6522</v>
+        <v>1541.4305</v>
       </c>
       <c r="G105" t="n">
-        <v>82.1628333333334</v>
+        <v>82.16550000000007</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4079,7 +4359,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4101,10 +4385,10 @@
         <v>82.59</v>
       </c>
       <c r="F106" t="n">
-        <v>6645.9937</v>
+        <v>7527.6522</v>
       </c>
       <c r="G106" t="n">
-        <v>82.17083333333341</v>
+        <v>82.1628333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4114,7 +4398,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4136,10 +4424,10 @@
         <v>82.59</v>
       </c>
       <c r="F107" t="n">
-        <v>1077.8518</v>
+        <v>6645.9937</v>
       </c>
       <c r="G107" t="n">
-        <v>82.17883333333342</v>
+        <v>82.17083333333341</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,7 +4437,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4171,10 +4463,10 @@
         <v>82.59</v>
       </c>
       <c r="F108" t="n">
-        <v>5004.1901</v>
+        <v>1077.8518</v>
       </c>
       <c r="G108" t="n">
-        <v>82.18533333333342</v>
+        <v>82.17883333333342</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,7 +4476,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4206,10 +4502,10 @@
         <v>82.59</v>
       </c>
       <c r="F109" t="n">
-        <v>1706.383</v>
+        <v>5004.1901</v>
       </c>
       <c r="G109" t="n">
-        <v>82.19183333333343</v>
+        <v>82.18533333333342</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,7 +4515,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4241,10 +4541,10 @@
         <v>82.59</v>
       </c>
       <c r="F110" t="n">
-        <v>438.1241</v>
+        <v>1706.383</v>
       </c>
       <c r="G110" t="n">
-        <v>82.19833333333344</v>
+        <v>82.19183333333343</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4254,7 +4554,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4267,19 +4571,19 @@
         <v>82.59</v>
       </c>
       <c r="C111" t="n">
-        <v>82.31</v>
+        <v>82.59</v>
       </c>
       <c r="D111" t="n">
         <v>82.59</v>
       </c>
       <c r="E111" t="n">
-        <v>82.31</v>
+        <v>82.59</v>
       </c>
       <c r="F111" t="n">
-        <v>3146.6139</v>
+        <v>438.1241</v>
       </c>
       <c r="G111" t="n">
-        <v>82.20016666666677</v>
+        <v>82.19833333333344</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4289,7 +4593,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4302,19 +4610,19 @@
         <v>82.59</v>
       </c>
       <c r="C112" t="n">
-        <v>82.59</v>
+        <v>82.31</v>
       </c>
       <c r="D112" t="n">
         <v>82.59</v>
       </c>
       <c r="E112" t="n">
-        <v>82.59</v>
+        <v>82.31</v>
       </c>
       <c r="F112" t="n">
-        <v>2567.3635</v>
+        <v>3146.6139</v>
       </c>
       <c r="G112" t="n">
-        <v>82.20666666666678</v>
+        <v>82.20016666666677</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4324,7 +4632,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4346,10 +4658,10 @@
         <v>82.59</v>
       </c>
       <c r="F113" t="n">
-        <v>1854.2437</v>
+        <v>2567.3635</v>
       </c>
       <c r="G113" t="n">
-        <v>82.21316666666679</v>
+        <v>82.20666666666678</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4359,7 +4671,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4381,10 +4697,10 @@
         <v>82.59</v>
       </c>
       <c r="F114" t="n">
-        <v>3883.1649</v>
+        <v>1854.2437</v>
       </c>
       <c r="G114" t="n">
-        <v>82.21500000000013</v>
+        <v>82.21316666666679</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,7 +4710,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4416,10 +4736,10 @@
         <v>82.59</v>
       </c>
       <c r="F115" t="n">
-        <v>639.1917</v>
+        <v>3883.1649</v>
       </c>
       <c r="G115" t="n">
-        <v>82.21650000000014</v>
+        <v>82.21500000000013</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4429,7 +4749,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4451,7 +4775,7 @@
         <v>82.59</v>
       </c>
       <c r="F116" t="n">
-        <v>3136.0307</v>
+        <v>639.1917</v>
       </c>
       <c r="G116" t="n">
         <v>82.21650000000014</v>
@@ -4464,7 +4788,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4486,10 +4814,10 @@
         <v>82.59</v>
       </c>
       <c r="F117" t="n">
-        <v>48820.5466</v>
+        <v>3136.0307</v>
       </c>
       <c r="G117" t="n">
-        <v>82.21783333333346</v>
+        <v>82.21650000000014</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4499,7 +4827,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4521,10 +4853,10 @@
         <v>82.59</v>
       </c>
       <c r="F118" t="n">
-        <v>439.9291</v>
+        <v>48820.5466</v>
       </c>
       <c r="G118" t="n">
-        <v>82.21916666666679</v>
+        <v>82.21783333333346</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4534,7 +4866,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,10 +4892,10 @@
         <v>82.59</v>
       </c>
       <c r="F119" t="n">
-        <v>581.8745</v>
+        <v>439.9291</v>
       </c>
       <c r="G119" t="n">
-        <v>82.2206666666668</v>
+        <v>82.21916666666679</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4569,7 +4905,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4591,10 +4931,10 @@
         <v>82.59</v>
       </c>
       <c r="F120" t="n">
-        <v>60.54001695120475</v>
+        <v>581.8745</v>
       </c>
       <c r="G120" t="n">
-        <v>82.22400000000013</v>
+        <v>82.2206666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4604,7 +4944,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4626,10 +4970,10 @@
         <v>82.59</v>
       </c>
       <c r="F121" t="n">
-        <v>1686.5059</v>
+        <v>60.54001695120475</v>
       </c>
       <c r="G121" t="n">
-        <v>82.22733333333346</v>
+        <v>82.22400000000013</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4639,8 +4983,51 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C122" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D122" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E122" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1686.5059</v>
+      </c>
+      <c r="G122" t="n">
+        <v>82.22733333333346</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>18124.39</v>
       </c>
       <c r="G2" t="n">
+        <v>81.82000000000004</v>
+      </c>
+      <c r="H2" t="n">
         <v>81.49733333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>659.6101</v>
       </c>
       <c r="G3" t="n">
+        <v>81.82533333333338</v>
+      </c>
+      <c r="H3" t="n">
         <v>81.51783333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="L3" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>16529.88461253191</v>
       </c>
       <c r="G4" t="n">
+        <v>81.83266666666671</v>
+      </c>
+      <c r="H4" t="n">
         <v>81.53900000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,29 @@
         <v>9355</v>
       </c>
       <c r="G5" t="n">
+        <v>81.87133333333337</v>
+      </c>
+      <c r="H5" t="n">
         <v>81.56016666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="L5" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>2329</v>
       </c>
       <c r="G6" t="n">
+        <v>81.91000000000004</v>
+      </c>
+      <c r="H6" t="n">
         <v>81.5765</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,25 @@
         <v>541.2868999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>81.92333333333337</v>
+      </c>
+      <c r="H7" t="n">
         <v>81.598</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="L7" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +703,27 @@
         <v>46191.8509</v>
       </c>
       <c r="G8" t="n">
+        <v>81.92933333333336</v>
+      </c>
+      <c r="H8" t="n">
         <v>81.60999999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +747,27 @@
         <v>47135.5802</v>
       </c>
       <c r="G9" t="n">
+        <v>81.97400000000003</v>
+      </c>
+      <c r="H9" t="n">
         <v>81.61716666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +791,27 @@
         <v>11738.2464</v>
       </c>
       <c r="G10" t="n">
+        <v>81.97466666666671</v>
+      </c>
+      <c r="H10" t="n">
         <v>81.6243333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +835,27 @@
         <v>36897.0586</v>
       </c>
       <c r="G11" t="n">
+        <v>81.97600000000004</v>
+      </c>
+      <c r="H11" t="n">
         <v>81.63149999999996</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +879,27 @@
         <v>980.2546</v>
       </c>
       <c r="G12" t="n">
+        <v>81.97733333333336</v>
+      </c>
+      <c r="H12" t="n">
         <v>81.63949999999996</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +923,27 @@
         <v>554.2671</v>
       </c>
       <c r="G13" t="n">
+        <v>81.9786666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>81.6466666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,27 @@
         <v>47304.2285</v>
       </c>
       <c r="G14" t="n">
+        <v>81.9786666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>81.65049999999994</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1011,27 @@
         <v>23941.7739</v>
       </c>
       <c r="G15" t="n">
+        <v>81.97933333333337</v>
+      </c>
+      <c r="H15" t="n">
         <v>81.65299999999993</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1055,27 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
+        <v>81.98133333333337</v>
+      </c>
+      <c r="H16" t="n">
         <v>81.66799999999992</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1099,29 @@
         <v>3341.7523</v>
       </c>
       <c r="G17" t="n">
+        <v>81.98333333333336</v>
+      </c>
+      <c r="H17" t="n">
         <v>81.67883333333324</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82</v>
+      </c>
+      <c r="L17" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1145,27 @@
         <v>1002.5183</v>
       </c>
       <c r="G18" t="n">
+        <v>81.9846666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>81.68966666666658</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1189,27 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
+        <v>81.96000000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>81.6939999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1233,27 @@
         <v>18350</v>
       </c>
       <c r="G20" t="n">
+        <v>81.93600000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>81.70183333333324</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1277,29 @@
         <v>9886.704100000001</v>
       </c>
       <c r="G21" t="n">
+        <v>81.91200000000002</v>
+      </c>
+      <c r="H21" t="n">
         <v>81.71216666666656</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="L21" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,22 +1323,29 @@
         <v>4594.0048</v>
       </c>
       <c r="G22" t="n">
+        <v>81.91266666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>81.73333333333325</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>81.62</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>81.62</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,24 +1369,29 @@
         <v>21295.5612</v>
       </c>
       <c r="G23" t="n">
+        <v>81.91400000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>81.73349999999991</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>82</v>
+      </c>
+      <c r="L23" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,24 +1415,27 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
+        <v>81.89600000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>81.73199999999991</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1459,29 @@
         <v>9826.457</v>
       </c>
       <c r="G25" t="n">
+        <v>81.87733333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>81.73033333333323</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="L25" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1505,29 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>81.89866666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>81.74366666666657</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1551,27 @@
         <v>4135.1923</v>
       </c>
       <c r="G27" t="n">
+        <v>81.91333333333336</v>
+      </c>
+      <c r="H27" t="n">
         <v>81.75533333333324</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1595,27 @@
         <v>6.09</v>
       </c>
       <c r="G28" t="n">
+        <v>81.92800000000003</v>
+      </c>
+      <c r="H28" t="n">
         <v>81.77016666666655</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1639,27 @@
         <v>365.7177</v>
       </c>
       <c r="G29" t="n">
+        <v>81.94933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>81.77549999999991</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1683,27 @@
         <v>13038.0607</v>
       </c>
       <c r="G30" t="n">
+        <v>81.97000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>81.78066666666658</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1727,27 @@
         <v>31832.4044</v>
       </c>
       <c r="G31" t="n">
+        <v>81.98933333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>81.79383333333324</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1771,27 @@
         <v>214.9548</v>
       </c>
       <c r="G32" t="n">
+        <v>82.00933333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>81.81166666666658</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1815,27 @@
         <v>6.5742</v>
       </c>
       <c r="G33" t="n">
+        <v>82.02933333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>81.83133333333326</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1859,27 @@
         <v>0.2823</v>
       </c>
       <c r="G34" t="n">
+        <v>82.06866666666669</v>
+      </c>
+      <c r="H34" t="n">
         <v>81.84299999999992</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1903,27 @@
         <v>23.96</v>
       </c>
       <c r="G35" t="n">
+        <v>82.07400000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>81.84633333333325</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1947,27 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
+        <v>82.09933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>81.85466666666659</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,24 +1991,27 @@
         <v>1920</v>
       </c>
       <c r="G37" t="n">
+        <v>82.09933333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>81.86299999999991</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,24 +2035,27 @@
         <v>23828.5837</v>
       </c>
       <c r="G38" t="n">
+        <v>82.09933333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>81.87133333333325</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,24 +2079,27 @@
         <v>3792.7441</v>
       </c>
       <c r="G39" t="n">
+        <v>82.13866666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>81.88466666666659</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1812,24 +2123,27 @@
         <v>6880.7251</v>
       </c>
       <c r="G40" t="n">
+        <v>82.17866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>81.90616666666659</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1853,22 +2167,27 @@
         <v>27102.0922</v>
       </c>
       <c r="G41" t="n">
+        <v>82.18466666666669</v>
+      </c>
+      <c r="H41" t="n">
         <v>81.92749999999994</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1892,22 +2211,27 @@
         <v>546.3337</v>
       </c>
       <c r="G42" t="n">
+        <v>82.19866666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>81.93633333333327</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,22 +2255,27 @@
         <v>1011</v>
       </c>
       <c r="G43" t="n">
+        <v>82.23533333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>81.95683333333325</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,22 +2299,27 @@
         <v>25.5165</v>
       </c>
       <c r="G44" t="n">
+        <v>82.23533333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>81.97099999999993</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2009,22 +2343,27 @@
         <v>9.2483</v>
       </c>
       <c r="G45" t="n">
+        <v>82.27266666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>81.99433333333327</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,22 +2387,27 @@
         <v>5.7517</v>
       </c>
       <c r="G46" t="n">
+        <v>82.30333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>82.01599999999993</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2087,22 +2431,27 @@
         <v>17091.5331</v>
       </c>
       <c r="G47" t="n">
+        <v>82.29066666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>82.02583333333327</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,22 +2475,27 @@
         <v>48397.677</v>
       </c>
       <c r="G48" t="n">
+        <v>82.27800000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>82.02933333333326</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,22 +2519,27 @@
         <v>6000</v>
       </c>
       <c r="G49" t="n">
+        <v>82.27800000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>82.03483333333325</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,22 +2563,27 @@
         <v>10000</v>
       </c>
       <c r="G50" t="n">
+        <v>82.31133333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>82.0481666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,22 +2607,27 @@
         <v>4000</v>
       </c>
       <c r="G51" t="n">
+        <v>82.32466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>82.06149999999994</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,22 +2651,27 @@
         <v>8416.2132</v>
       </c>
       <c r="G52" t="n">
+        <v>82.33800000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>82.06833333333326</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,22 +2695,27 @@
         <v>544.908</v>
       </c>
       <c r="G53" t="n">
+        <v>82.35133333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>82.07349999999992</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,22 +2739,27 @@
         <v>1614.092</v>
       </c>
       <c r="G54" t="n">
+        <v>82.34466666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>82.08833333333324</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,22 +2783,27 @@
         <v>363.7247</v>
       </c>
       <c r="G55" t="n">
+        <v>82.3566666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>82.09683333333324</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,22 +2827,27 @@
         <v>60.3907</v>
       </c>
       <c r="G56" t="n">
+        <v>82.36400000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>82.10583333333324</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,22 +2871,27 @@
         <v>242.1601</v>
       </c>
       <c r="G57" t="n">
+        <v>82.376</v>
+      </c>
+      <c r="H57" t="n">
         <v>82.11633333333323</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,22 +2915,27 @@
         <v>364.39</v>
       </c>
       <c r="G58" t="n">
+        <v>82.36</v>
+      </c>
+      <c r="H58" t="n">
         <v>82.1254999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2555,22 +2959,27 @@
         <v>493.04</v>
       </c>
       <c r="G59" t="n">
+        <v>82.37400000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>82.13433333333325</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,22 +3003,27 @@
         <v>242.4243</v>
       </c>
       <c r="G60" t="n">
+        <v>82.35066666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>82.14316666666657</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,23 +3047,28 @@
         <v>26.6395</v>
       </c>
       <c r="G61" t="n">
+        <v>82.32666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>82.15016666666658</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
+      <c r="L61" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1.00000121980971</v>
       </c>
     </row>
     <row r="62">
@@ -2672,22 +3091,21 @@
         <v>9147.360500000001</v>
       </c>
       <c r="G62" t="n">
+        <v>82.34533333333337</v>
+      </c>
+      <c r="H62" t="n">
         <v>82.15716666666658</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2711,22 +3129,21 @@
         <v>1872.4388</v>
       </c>
       <c r="G63" t="n">
+        <v>82.36400000000005</v>
+      </c>
+      <c r="H63" t="n">
         <v>82.16399999999993</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,22 +3167,21 @@
         <v>3780.896</v>
       </c>
       <c r="G64" t="n">
+        <v>82.37666666666672</v>
+      </c>
+      <c r="H64" t="n">
         <v>82.17083333333328</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,22 +3205,21 @@
         <v>11342.9945</v>
       </c>
       <c r="G65" t="n">
+        <v>82.38933333333338</v>
+      </c>
+      <c r="H65" t="n">
         <v>82.17766666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,22 +3243,21 @@
         <v>13237.1946</v>
       </c>
       <c r="G66" t="n">
+        <v>82.40200000000006</v>
+      </c>
+      <c r="H66" t="n">
         <v>82.18449999999997</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2867,22 +3281,21 @@
         <v>9047.6379</v>
       </c>
       <c r="G67" t="n">
+        <v>82.41466666666673</v>
+      </c>
+      <c r="H67" t="n">
         <v>82.19116666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,22 +3319,21 @@
         <v>1474.5394</v>
       </c>
       <c r="G68" t="n">
+        <v>82.40800000000006</v>
+      </c>
+      <c r="H68" t="n">
         <v>82.19316666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,22 +3357,21 @@
         <v>4414.077</v>
       </c>
       <c r="G69" t="n">
+        <v>82.40133333333338</v>
+      </c>
+      <c r="H69" t="n">
         <v>82.19516666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,22 +3395,21 @@
         <v>5888.6165</v>
       </c>
       <c r="G70" t="n">
+        <v>82.37000000000005</v>
+      </c>
+      <c r="H70" t="n">
         <v>82.19566666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,22 +3433,21 @@
         <v>2320.0008</v>
       </c>
       <c r="G71" t="n">
+        <v>82.33666666666672</v>
+      </c>
+      <c r="H71" t="n">
         <v>82.19600000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,22 +3471,21 @@
         <v>97202.9734</v>
       </c>
       <c r="G72" t="n">
+        <v>82.29733333333338</v>
+      </c>
+      <c r="H72" t="n">
         <v>82.19633333333336</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,22 +3509,21 @@
         <v>64.6551</v>
       </c>
       <c r="G73" t="n">
+        <v>82.27000000000004</v>
+      </c>
+      <c r="H73" t="n">
         <v>82.19833333333337</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,22 +3547,21 @@
         <v>4315.6988</v>
       </c>
       <c r="G74" t="n">
+        <v>82.24266666666671</v>
+      </c>
+      <c r="H74" t="n">
         <v>82.20033333333339</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,22 +3585,21 @@
         <v>731.6547</v>
       </c>
       <c r="G75" t="n">
+        <v>82.21000000000004</v>
+      </c>
+      <c r="H75" t="n">
         <v>82.20083333333339</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,22 +3623,21 @@
         <v>4972.4885</v>
       </c>
       <c r="G76" t="n">
+        <v>82.2046666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>82.20600000000007</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3257,22 +3661,21 @@
         <v>849.2478</v>
       </c>
       <c r="G77" t="n">
+        <v>82.17866666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>82.20600000000007</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,22 +3699,21 @@
         <v>8720.9123</v>
       </c>
       <c r="G78" t="n">
+        <v>82.15266666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>82.20600000000007</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,22 +3737,21 @@
         <v>1643.493</v>
       </c>
       <c r="G79" t="n">
+        <v>82.14066666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>82.21600000000008</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,22 +3775,21 @@
         <v>2010</v>
       </c>
       <c r="G80" t="n">
+        <v>82.12866666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>82.22583333333341</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,22 +3813,21 @@
         <v>7933.499</v>
       </c>
       <c r="G81" t="n">
+        <v>82.10333333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>82.23233333333341</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,22 +3851,21 @@
         <v>515</v>
       </c>
       <c r="G82" t="n">
+        <v>82.07799999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>82.23250000000009</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3491,22 +3889,21 @@
         <v>86076.72530000001</v>
       </c>
       <c r="G83" t="n">
+        <v>82.07133333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>82.23250000000009</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,22 +3927,21 @@
         <v>11500</v>
       </c>
       <c r="G84" t="n">
+        <v>82.06466666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>82.23733333333342</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,22 +3965,21 @@
         <v>24316.8021</v>
       </c>
       <c r="G85" t="n">
+        <v>82.06400000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>82.24233333333342</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,22 +4003,21 @@
         <v>20836.5505</v>
       </c>
       <c r="G86" t="n">
+        <v>82.07066666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>82.23900000000009</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3647,22 +4041,21 @@
         <v>184.1534</v>
       </c>
       <c r="G87" t="n">
+        <v>82.07733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>82.23733333333344</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,22 +4079,21 @@
         <v>37.3756</v>
       </c>
       <c r="G88" t="n">
+        <v>82.07066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>82.23400000000011</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,22 +4117,21 @@
         <v>774</v>
       </c>
       <c r="G89" t="n">
+        <v>82.05866666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>82.22766666666676</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,22 +4155,21 @@
         <v>12394.5056</v>
       </c>
       <c r="G90" t="n">
+        <v>82.05200000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>82.22133333333343</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,22 +4193,21 @@
         <v>896.9999</v>
       </c>
       <c r="G91" t="n">
+        <v>82.02533333333335</v>
+      </c>
+      <c r="H91" t="n">
         <v>82.2150000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,22 +4231,21 @@
         <v>23234.455</v>
       </c>
       <c r="G92" t="n">
+        <v>82.01933333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>82.2085000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,22 +4269,21 @@
         <v>19680.5733</v>
       </c>
       <c r="G93" t="n">
+        <v>82.00800000000002</v>
+      </c>
+      <c r="H93" t="n">
         <v>82.20066666666676</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,22 +4307,21 @@
         <v>1628.6999</v>
       </c>
       <c r="G94" t="n">
+        <v>81.98266666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>82.19450000000009</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,22 +4345,21 @@
         <v>199.5</v>
       </c>
       <c r="G95" t="n">
+        <v>81.95800000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>82.19683333333343</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,22 +4383,21 @@
         <v>21</v>
       </c>
       <c r="G96" t="n">
+        <v>81.95066666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>82.19516666666676</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,22 +4421,21 @@
         <v>56</v>
       </c>
       <c r="G97" t="n">
+        <v>81.94333333333336</v>
+      </c>
+      <c r="H97" t="n">
         <v>82.19350000000009</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,22 +4459,21 @@
         <v>597</v>
       </c>
       <c r="G98" t="n">
+        <v>81.9366666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>82.19183333333341</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4115,22 +4497,21 @@
         <v>298.5</v>
       </c>
       <c r="G99" t="n">
+        <v>81.93000000000004</v>
+      </c>
+      <c r="H99" t="n">
         <v>82.18516666666673</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,22 +4535,21 @@
         <v>99.5</v>
       </c>
       <c r="G100" t="n">
+        <v>81.92000000000003</v>
+      </c>
+      <c r="H100" t="n">
         <v>82.17766666666674</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,22 +4573,21 @@
         <v>4972.4885</v>
       </c>
       <c r="G101" t="n">
+        <v>81.90200000000003</v>
+      </c>
+      <c r="H101" t="n">
         <v>82.16833333333339</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,22 +4611,21 @@
         <v>1623.0585</v>
       </c>
       <c r="G102" t="n">
+        <v>81.92800000000004</v>
+      </c>
+      <c r="H102" t="n">
         <v>82.16966666666673</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,22 +4649,21 @@
         <v>882.2646</v>
       </c>
       <c r="G103" t="n">
+        <v>81.9646666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>82.1663333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,22 +4687,21 @@
         <v>846.9325</v>
       </c>
       <c r="G104" t="n">
+        <v>82.00666666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>82.17050000000008</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,22 +4725,21 @@
         <v>1541.4305</v>
       </c>
       <c r="G105" t="n">
+        <v>82.04933333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>82.16550000000007</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,22 +4763,21 @@
         <v>7527.6522</v>
       </c>
       <c r="G106" t="n">
+        <v>82.09466666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>82.1628333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4427,22 +4801,21 @@
         <v>6645.9937</v>
       </c>
       <c r="G107" t="n">
+        <v>82.14</v>
+      </c>
+      <c r="H107" t="n">
         <v>82.17083333333341</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,22 +4839,21 @@
         <v>1077.8518</v>
       </c>
       <c r="G108" t="n">
+        <v>82.19066666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>82.17883333333342</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,22 +4877,21 @@
         <v>5004.1901</v>
       </c>
       <c r="G109" t="n">
+        <v>82.24133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>82.18533333333342</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,22 +4915,21 @@
         <v>1706.383</v>
       </c>
       <c r="G110" t="n">
+        <v>82.29133333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>82.19183333333343</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,22 +4953,21 @@
         <v>438.1241</v>
       </c>
       <c r="G111" t="n">
+        <v>82.33733333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>82.19833333333344</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,22 +4991,21 @@
         <v>3146.6139</v>
       </c>
       <c r="G112" t="n">
+        <v>82.36466666666664</v>
+      </c>
+      <c r="H112" t="n">
         <v>82.20016666666677</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,22 +5029,21 @@
         <v>2567.3635</v>
       </c>
       <c r="G113" t="n">
+        <v>82.41066666666663</v>
+      </c>
+      <c r="H113" t="n">
         <v>82.20666666666678</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,22 +5067,21 @@
         <v>1854.2437</v>
       </c>
       <c r="G114" t="n">
+        <v>82.45666666666662</v>
+      </c>
+      <c r="H114" t="n">
         <v>82.21316666666679</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,22 +5105,21 @@
         <v>3883.1649</v>
       </c>
       <c r="G115" t="n">
+        <v>82.50599999999994</v>
+      </c>
+      <c r="H115" t="n">
         <v>82.21500000000013</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,22 +5143,21 @@
         <v>639.1917</v>
       </c>
       <c r="G116" t="n">
+        <v>82.55666666666662</v>
+      </c>
+      <c r="H116" t="n">
         <v>82.21650000000014</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,22 +5181,21 @@
         <v>3136.0307</v>
       </c>
       <c r="G117" t="n">
+        <v>82.56333333333328</v>
+      </c>
+      <c r="H117" t="n">
         <v>82.21650000000014</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,22 +5219,21 @@
         <v>48820.5466</v>
       </c>
       <c r="G118" t="n">
+        <v>82.56599999999995</v>
+      </c>
+      <c r="H118" t="n">
         <v>82.21783333333346</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4895,22 +5257,21 @@
         <v>439.9291</v>
       </c>
       <c r="G119" t="n">
+        <v>82.5686666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>82.21916666666679</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,22 +5295,21 @@
         <v>581.8745</v>
       </c>
       <c r="G120" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H120" t="n">
         <v>82.2206666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,22 +5333,21 @@
         <v>60.54001695120475</v>
       </c>
       <c r="G121" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H121" t="n">
         <v>82.22400000000013</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,22 +5371,401 @@
         <v>1686.5059</v>
       </c>
       <c r="G122" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H122" t="n">
         <v>82.22733333333346</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C123" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D123" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E123" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3183.7365</v>
+      </c>
+      <c r="G123" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H123" t="n">
+        <v>82.23066666666679</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C124" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D124" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E124" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1995.8868</v>
+      </c>
+      <c r="G124" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H124" t="n">
+        <v>82.23400000000012</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C125" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D125" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E125" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4190.257</v>
+      </c>
+      <c r="G125" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H125" t="n">
+        <v>82.23733333333345</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C126" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D126" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E126" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9180.7263</v>
+      </c>
+      <c r="G126" t="n">
+        <v>82.57133333333327</v>
+      </c>
+      <c r="H126" t="n">
+        <v>82.24066666666678</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C127" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D127" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E127" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3684.772</v>
+      </c>
+      <c r="G127" t="n">
+        <v>82.58999999999993</v>
+      </c>
+      <c r="H127" t="n">
+        <v>82.24400000000011</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>82.52</v>
+      </c>
+      <c r="C128" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D128" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E128" t="n">
+        <v>82.52</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2885.6435</v>
+      </c>
+      <c r="G128" t="n">
+        <v>82.58999999999993</v>
+      </c>
+      <c r="H128" t="n">
+        <v>82.25216666666678</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C129" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7772.4175</v>
+      </c>
+      <c r="G129" t="n">
+        <v>82.59066666666659</v>
+      </c>
+      <c r="H129" t="n">
+        <v>82.26050000000011</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2430.1156</v>
+      </c>
+      <c r="G130" t="n">
+        <v>82.59133333333327</v>
+      </c>
+      <c r="H130" t="n">
+        <v>82.27033333333344</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1482.7656</v>
+      </c>
+      <c r="G131" t="n">
+        <v>82.59199999999993</v>
+      </c>
+      <c r="H131" t="n">
+        <v>82.28033333333345</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9639.2894</v>
+      </c>
+      <c r="G132" t="n">
+        <v>82.5926666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>82.29033333333345</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.12</v>
+        <v>81.98</v>
       </c>
       <c r="C2" t="n">
-        <v>81.12</v>
+        <v>81.98</v>
       </c>
       <c r="D2" t="n">
-        <v>81.12</v>
+        <v>81.98</v>
       </c>
       <c r="E2" t="n">
-        <v>81.12</v>
+        <v>81.98</v>
       </c>
       <c r="F2" t="n">
-        <v>680</v>
+        <v>23941.7739</v>
       </c>
       <c r="G2" t="n">
-        <v>-210906.0066</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>310.8272</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>-210595.1794</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>1677.6772</v>
+        <v>3341.7523</v>
       </c>
       <c r="G4" t="n">
-        <v>-210595.1794</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="F5" t="n">
-        <v>413.4006</v>
+        <v>1002.5183</v>
       </c>
       <c r="G5" t="n">
-        <v>-210595.1794</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81.5</v>
+        <v>81.61</v>
       </c>
       <c r="C6" t="n">
-        <v>81.5</v>
+        <v>81.61</v>
       </c>
       <c r="D6" t="n">
-        <v>81.5</v>
+        <v>81.61</v>
       </c>
       <c r="E6" t="n">
-        <v>81.5</v>
+        <v>81.61</v>
       </c>
       <c r="F6" t="n">
-        <v>1175</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>-210595.1794</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="C7" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="D7" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="E7" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="F7" t="n">
-        <v>1796.4949</v>
+        <v>18350</v>
       </c>
       <c r="G7" t="n">
-        <v>-210595.1794</v>
+        <v>-210313.7121</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="C8" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="D8" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="E8" t="n">
-        <v>81.5</v>
+        <v>81.62</v>
       </c>
       <c r="F8" t="n">
-        <v>1985.0003</v>
+        <v>9886.704100000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-210595.1794</v>
+        <v>-210313.7121</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81.2</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>81.01000000000001</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>81.2</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>81.01000000000001</v>
+        <v>82</v>
       </c>
       <c r="F9" t="n">
-        <v>59397.4866</v>
+        <v>4594.0048</v>
       </c>
       <c r="G9" t="n">
-        <v>-269992.666</v>
+        <v>-205719.7073</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81.11</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.11</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>81.11</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>81.11</v>
+        <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>1681.967</v>
+        <v>21295.5612</v>
       </c>
       <c r="G10" t="n">
-        <v>-268310.699</v>
+        <v>-205719.7073</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81.51000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>81.88</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>81.88</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>81.51000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>5797.8693</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-262512.8296999999</v>
+        <v>-205819.7073</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>81.54000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>81.52</v>
+        <v>81.7</v>
       </c>
       <c r="D12" t="n">
-        <v>81.54000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>81.52</v>
+        <v>81.7</v>
       </c>
       <c r="F12" t="n">
-        <v>4275</v>
+        <v>9826.457</v>
       </c>
       <c r="G12" t="n">
-        <v>-266787.8296999999</v>
+        <v>-215646.1643</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="C13" t="n">
-        <v>81.45</v>
+        <v>82.3</v>
       </c>
       <c r="D13" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="E13" t="n">
-        <v>81.45</v>
+        <v>82.3</v>
       </c>
       <c r="F13" t="n">
-        <v>13285.0024</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-280072.8320999999</v>
+        <v>-215636.1643</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="C14" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="D14" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="E14" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="F14" t="n">
-        <v>4893</v>
+        <v>4135.1923</v>
       </c>
       <c r="G14" t="n">
-        <v>-280072.8320999999</v>
+        <v>-219771.3566</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="C15" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="D15" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="E15" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1130.3313</v>
+        <v>6.09</v>
       </c>
       <c r="G15" t="n">
-        <v>-280072.8320999999</v>
+        <v>-219771.3566</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="C16" t="n">
-        <v>81.52</v>
+        <v>82.3</v>
       </c>
       <c r="D16" t="n">
-        <v>81.52</v>
+        <v>82.3</v>
       </c>
       <c r="E16" t="n">
-        <v>81.45</v>
+        <v>82.2</v>
       </c>
       <c r="F16" t="n">
-        <v>17563.3414</v>
+        <v>365.7177</v>
       </c>
       <c r="G16" t="n">
-        <v>-262509.4907</v>
+        <v>-219405.6389</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>81.90000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>81.90000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>81.90000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>81.90000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>183.3398</v>
+        <v>13038.0607</v>
       </c>
       <c r="G17" t="n">
-        <v>-262326.1508999999</v>
+        <v>-232443.6996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81.87</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>81.87</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>81.87</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>81.87</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>280</v>
+        <v>31832.4044</v>
       </c>
       <c r="G18" t="n">
-        <v>-262606.1508999999</v>
+        <v>-232443.6996</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D19" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E19" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F19" t="n">
-        <v>186.8668</v>
+        <v>214.9548</v>
       </c>
       <c r="G19" t="n">
-        <v>-262793.0177</v>
+        <v>-232228.7448</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C20" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D20" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E20" t="n">
-        <v>81.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F20" t="n">
-        <v>462.248</v>
+        <v>6.5742</v>
       </c>
       <c r="G20" t="n">
-        <v>-262793.0177</v>
+        <v>-232228.7448</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C21" t="n">
-        <v>81.79000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D21" t="n">
-        <v>81.79000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E21" t="n">
-        <v>81.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F21" t="n">
-        <v>40624.7534</v>
+        <v>0.2823</v>
       </c>
       <c r="G21" t="n">
-        <v>-222168.2643</v>
+        <v>-232229.0270999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>81.89</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>81.89</v>
+        <v>81.7</v>
       </c>
       <c r="D22" t="n">
-        <v>81.89</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>81.89</v>
+        <v>81.7</v>
       </c>
       <c r="F22" t="n">
-        <v>29216.4877</v>
+        <v>23.96</v>
       </c>
       <c r="G22" t="n">
-        <v>-192951.7766</v>
+        <v>-232252.9870999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81.31</v>
+        <v>82</v>
       </c>
       <c r="C23" t="n">
-        <v>81.31</v>
+        <v>82</v>
       </c>
       <c r="D23" t="n">
-        <v>81.31</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
-        <v>81.31</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>23.96</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-192975.7366</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1206,19 +1233,19 @@
         <v>81.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>81.97</v>
+        <v>82</v>
       </c>
       <c r="D24" t="n">
-        <v>81.97</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>4633</v>
+        <v>1920</v>
       </c>
       <c r="G24" t="n">
-        <v>-188342.7366</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>81.95999999999999</v>
+        <v>82</v>
       </c>
       <c r="C25" t="n">
-        <v>81.95999999999999</v>
+        <v>82</v>
       </c>
       <c r="D25" t="n">
-        <v>81.95999999999999</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>81.95999999999999</v>
+        <v>82</v>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>23828.5837</v>
       </c>
       <c r="G25" t="n">
-        <v>-188842.7366</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="C26" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D26" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E26" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="F26" t="n">
-        <v>8971.7672</v>
+        <v>3792.7441</v>
       </c>
       <c r="G26" t="n">
-        <v>-188842.7366</v>
+        <v>-228450.2429999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="C27" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D27" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E27" t="n">
-        <v>81.95999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="F27" t="n">
-        <v>7500</v>
+        <v>6880.7251</v>
       </c>
       <c r="G27" t="n">
-        <v>-188842.7366</v>
+        <v>-228450.2429999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>81.98</v>
+        <v>82.3</v>
       </c>
       <c r="C28" t="n">
-        <v>81.98</v>
+        <v>82.39</v>
       </c>
       <c r="D28" t="n">
-        <v>81.98</v>
+        <v>82.39</v>
       </c>
       <c r="E28" t="n">
-        <v>81.98</v>
+        <v>82.3</v>
       </c>
       <c r="F28" t="n">
-        <v>6000</v>
+        <v>27102.0922</v>
       </c>
       <c r="G28" t="n">
-        <v>-182842.7366</v>
+        <v>-201348.1507999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="C29" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="D29" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="E29" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="F29" t="n">
-        <v>830.0216</v>
+        <v>546.3337</v>
       </c>
       <c r="G29" t="n">
-        <v>-183672.7582</v>
+        <v>-200801.8171</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="C30" t="n">
-        <v>81.97</v>
+        <v>82.75</v>
       </c>
       <c r="D30" t="n">
-        <v>81.97</v>
+        <v>82.75</v>
       </c>
       <c r="E30" t="n">
-        <v>81.97</v>
+        <v>82.41</v>
       </c>
       <c r="F30" t="n">
-        <v>1673.5331</v>
+        <v>1011</v>
       </c>
       <c r="G30" t="n">
-        <v>-183672.7582</v>
+        <v>-199790.8171</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>81.97</v>
+        <v>82.3</v>
       </c>
       <c r="C31" t="n">
-        <v>81.97</v>
+        <v>82.3</v>
       </c>
       <c r="D31" t="n">
-        <v>81.97</v>
+        <v>82.3</v>
       </c>
       <c r="E31" t="n">
-        <v>81.97</v>
+        <v>82.3</v>
       </c>
       <c r="F31" t="n">
-        <v>18124.39</v>
+        <v>25.5165</v>
       </c>
       <c r="G31" t="n">
-        <v>-183672.7582</v>
+        <v>-199816.3336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>81.98</v>
+        <v>82.75</v>
       </c>
       <c r="C32" t="n">
-        <v>81.98</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>81.98</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>81.98</v>
+        <v>82.75</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6101</v>
+        <v>9.2483</v>
       </c>
       <c r="G32" t="n">
-        <v>-183013.1481</v>
+        <v>-199807.0852999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81.98</v>
+        <v>82.75</v>
       </c>
       <c r="C33" t="n">
-        <v>81.98</v>
+        <v>82.75</v>
       </c>
       <c r="D33" t="n">
-        <v>82.27</v>
+        <v>82.75</v>
       </c>
       <c r="E33" t="n">
-        <v>81.98</v>
+        <v>82.75</v>
       </c>
       <c r="F33" t="n">
-        <v>16529.88461253191</v>
+        <v>5.7517</v>
       </c>
       <c r="G33" t="n">
-        <v>-183013.1481</v>
+        <v>-199812.8369999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.98</v>
+        <v>82.22</v>
       </c>
       <c r="C34" t="n">
-        <v>81.98</v>
+        <v>82.11</v>
       </c>
       <c r="D34" t="n">
-        <v>82.09999999999999</v>
+        <v>82.22</v>
       </c>
       <c r="E34" t="n">
-        <v>81.98</v>
+        <v>82.11</v>
       </c>
       <c r="F34" t="n">
-        <v>9355</v>
+        <v>17091.5331</v>
       </c>
       <c r="G34" t="n">
-        <v>-183013.1481</v>
+        <v>-216904.3700999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>81.98999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="C35" t="n">
-        <v>81.98</v>
+        <v>82.11</v>
       </c>
       <c r="D35" t="n">
-        <v>81.98999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E35" t="n">
-        <v>81.98</v>
+        <v>82.11</v>
       </c>
       <c r="F35" t="n">
-        <v>2329</v>
+        <v>48397.677</v>
       </c>
       <c r="G35" t="n">
-        <v>-183013.1481</v>
+        <v>-216904.3700999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="C36" t="n">
-        <v>81.98999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="D36" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="E36" t="n">
-        <v>81.98999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="F36" t="n">
-        <v>541.2868999999999</v>
+        <v>6000</v>
       </c>
       <c r="G36" t="n">
-        <v>-182471.8612</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>81.98999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C37" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="D37" t="n">
-        <v>81.98999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="E37" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="F37" t="n">
-        <v>46191.8509</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-228663.7121</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.98</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="D38" t="n">
-        <v>81.98</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="F38" t="n">
-        <v>47135.5802</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="n">
-        <v>-228663.7121</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="C39" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="D39" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="E39" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="F39" t="n">
-        <v>11738.2464</v>
+        <v>8416.2132</v>
       </c>
       <c r="G39" t="n">
-        <v>-228663.7121</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="C40" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="D40" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="E40" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="F40" t="n">
-        <v>36897.0586</v>
+        <v>544.908</v>
       </c>
       <c r="G40" t="n">
-        <v>-228663.7121</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="C41" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="D41" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="E41" t="n">
-        <v>81.98</v>
+        <v>82.2</v>
       </c>
       <c r="F41" t="n">
-        <v>980.2546</v>
+        <v>1614.092</v>
       </c>
       <c r="G41" t="n">
-        <v>-228663.7121</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>81.98</v>
+        <v>82.48</v>
       </c>
       <c r="C42" t="n">
-        <v>81.98</v>
+        <v>82.48</v>
       </c>
       <c r="D42" t="n">
-        <v>81.98</v>
+        <v>82.48</v>
       </c>
       <c r="E42" t="n">
-        <v>81.98</v>
+        <v>82.48</v>
       </c>
       <c r="F42" t="n">
-        <v>554.2671</v>
+        <v>363.7247</v>
       </c>
       <c r="G42" t="n">
-        <v>-228663.7121</v>
+        <v>-210540.6454</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81.98999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C43" t="n">
-        <v>81.98</v>
+        <v>82.5</v>
       </c>
       <c r="D43" t="n">
-        <v>81.98999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E43" t="n">
-        <v>81.98</v>
+        <v>82.5</v>
       </c>
       <c r="F43" t="n">
-        <v>47304.2285</v>
+        <v>60.3907</v>
       </c>
       <c r="G43" t="n">
-        <v>-228663.7121</v>
+        <v>-210480.2547</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>81.98</v>
+        <v>82.59</v>
       </c>
       <c r="C44" t="n">
-        <v>81.98</v>
+        <v>82.59</v>
       </c>
       <c r="D44" t="n">
-        <v>81.98</v>
+        <v>82.59</v>
       </c>
       <c r="E44" t="n">
-        <v>81.98</v>
+        <v>82.59</v>
       </c>
       <c r="F44" t="n">
-        <v>23941.7739</v>
+        <v>242.1601</v>
       </c>
       <c r="G44" t="n">
-        <v>-228663.7121</v>
+        <v>-210238.0946</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>364.39</v>
       </c>
       <c r="G45" t="n">
-        <v>-228563.7121</v>
+        <v>-210602.4846</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>82</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>3341.7523</v>
+        <v>493.04</v>
       </c>
       <c r="G46" t="n">
-        <v>-228563.7121</v>
+        <v>-210602.4846</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82</v>
+        <v>82.5</v>
       </c>
       <c r="C47" t="n">
-        <v>82</v>
+        <v>82.5</v>
       </c>
       <c r="D47" t="n">
-        <v>82</v>
+        <v>82.5</v>
       </c>
       <c r="E47" t="n">
-        <v>82</v>
+        <v>82.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1002.5183</v>
+        <v>242.4243</v>
       </c>
       <c r="G47" t="n">
-        <v>-228563.7121</v>
+        <v>-210844.9089</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>81.61</v>
+        <v>82.39</v>
       </c>
       <c r="C48" t="n">
-        <v>81.61</v>
+        <v>82.39</v>
       </c>
       <c r="D48" t="n">
-        <v>81.61</v>
+        <v>82.39</v>
       </c>
       <c r="E48" t="n">
-        <v>81.61</v>
+        <v>82.39</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>26.6395</v>
       </c>
       <c r="G48" t="n">
-        <v>-228663.7121</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="C49" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="D49" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="E49" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="F49" t="n">
-        <v>18350</v>
+        <v>9147.360500000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-210313.7121</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="C50" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="D50" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="E50" t="n">
-        <v>81.62</v>
+        <v>82.39</v>
       </c>
       <c r="F50" t="n">
-        <v>9886.704100000001</v>
+        <v>1872.4388</v>
       </c>
       <c r="G50" t="n">
-        <v>-210313.7121</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="C51" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="D51" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="E51" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="F51" t="n">
-        <v>4594.0048</v>
+        <v>3780.896</v>
       </c>
       <c r="G51" t="n">
-        <v>-205719.7073</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="C52" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="D52" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="E52" t="n">
-        <v>82</v>
+        <v>82.39</v>
       </c>
       <c r="F52" t="n">
-        <v>21295.5612</v>
+        <v>11342.9945</v>
       </c>
       <c r="G52" t="n">
-        <v>-205719.7073</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="C53" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="D53" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="E53" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>13237.1946</v>
       </c>
       <c r="G53" t="n">
-        <v>-205819.7073</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="C54" t="n">
-        <v>81.7</v>
+        <v>82.39</v>
       </c>
       <c r="D54" t="n">
-        <v>81.70999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="E54" t="n">
-        <v>81.7</v>
+        <v>82.39</v>
       </c>
       <c r="F54" t="n">
-        <v>9826.457</v>
+        <v>9047.6379</v>
       </c>
       <c r="G54" t="n">
-        <v>-215646.1643</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,157 +2339,143 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="C55" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="E55" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>1474.5394</v>
       </c>
       <c r="G55" t="n">
-        <v>-215636.1643</v>
+        <v>-212346.0878</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>81.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4135.1923</v>
+        <v>4414.077</v>
       </c>
       <c r="G56" t="n">
-        <v>-219771.3566</v>
+        <v>-212346.0878</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>82.2</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>82.2</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>82.2</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>82.2</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>6.09</v>
+        <v>5888.6165</v>
       </c>
       <c r="G57" t="n">
-        <v>-219771.3566</v>
+        <v>-218234.7043</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="C58" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D58" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E58" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="F58" t="n">
-        <v>365.7177</v>
+        <v>2320.0008</v>
       </c>
       <c r="G58" t="n">
-        <v>-219405.6389</v>
+        <v>-220554.7051</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2440,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.29000000000001</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>82.29000000000001</v>
+        <v>82</v>
       </c>
       <c r="D59" t="n">
-        <v>82.29000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>82.29000000000001</v>
+        <v>82</v>
       </c>
       <c r="F59" t="n">
-        <v>13038.0607</v>
+        <v>97202.9734</v>
       </c>
       <c r="G59" t="n">
-        <v>-232443.6996</v>
+        <v>-220554.7051</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2475,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.29000000000001</v>
+        <v>82.11</v>
       </c>
       <c r="C60" t="n">
-        <v>82.29000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>82.29000000000001</v>
+        <v>82.11</v>
       </c>
       <c r="E60" t="n">
-        <v>82.29000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>31832.4044</v>
+        <v>64.6551</v>
       </c>
       <c r="G60" t="n">
-        <v>-232443.6996</v>
+        <v>-220490.05</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2510,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>214.9548</v>
+        <v>4315.6988</v>
       </c>
       <c r="G61" t="n">
-        <v>-232228.7448</v>
+        <v>-220490.05</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>6.5742</v>
+        <v>731.6547</v>
       </c>
       <c r="G62" t="n">
-        <v>-232228.7448</v>
+        <v>-221221.7047</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2589,19 +2637,19 @@
         <v>82.2</v>
       </c>
       <c r="C63" t="n">
-        <v>82.2</v>
+        <v>82.31</v>
       </c>
       <c r="D63" t="n">
-        <v>82.2</v>
+        <v>82.31</v>
       </c>
       <c r="E63" t="n">
         <v>82.2</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2823</v>
+        <v>4972.4885</v>
       </c>
       <c r="G63" t="n">
-        <v>-232229.0270999999</v>
+        <v>-216249.2162</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>81.70999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="D64" t="n">
-        <v>81.70999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="F64" t="n">
-        <v>23.96</v>
+        <v>849.2478</v>
       </c>
       <c r="G64" t="n">
-        <v>-232252.9870999999</v>
+        <v>-217098.464</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2668,10 +2718,10 @@
         <v>82</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>8720.9123</v>
       </c>
       <c r="G65" t="n">
-        <v>-232242.9870999999</v>
+        <v>-217098.464</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>81.90000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>81.90000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1920</v>
+        <v>1643.493</v>
       </c>
       <c r="G66" t="n">
-        <v>-232242.9870999999</v>
+        <v>-215454.971</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>82</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>23828.5837</v>
+        <v>2010</v>
       </c>
       <c r="G67" t="n">
-        <v>-232242.9870999999</v>
+        <v>-215454.971</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>3792.7441</v>
+        <v>7933.499</v>
       </c>
       <c r="G68" t="n">
-        <v>-228450.2429999999</v>
+        <v>-223388.47</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>6880.7251</v>
+        <v>515</v>
       </c>
       <c r="G69" t="n">
-        <v>-228450.2429999999</v>
+        <v>-223388.47</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2825,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>82.3</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>82.39</v>
+        <v>82</v>
       </c>
       <c r="D70" t="n">
-        <v>82.39</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F70" t="n">
-        <v>27102.0922</v>
+        <v>86076.72530000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-201348.1507999999</v>
+        <v>-309465.1953</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="C71" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="D71" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="E71" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="F71" t="n">
-        <v>546.3337</v>
+        <v>11500</v>
       </c>
       <c r="G71" t="n">
-        <v>-200801.8171</v>
+        <v>-309465.1953</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2895,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="C72" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="D72" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="E72" t="n">
-        <v>82.41</v>
+        <v>82</v>
       </c>
       <c r="F72" t="n">
-        <v>1011</v>
+        <v>24316.8021</v>
       </c>
       <c r="G72" t="n">
-        <v>-199790.8171</v>
+        <v>-309465.1953</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>25.5165</v>
+        <v>20836.5505</v>
       </c>
       <c r="G73" t="n">
-        <v>-199816.3336</v>
+        <v>-288628.6448</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>82.75</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>82.84999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>82.84999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>82.75</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>9.2483</v>
+        <v>184.1534</v>
       </c>
       <c r="G74" t="n">
-        <v>-199807.0852999999</v>
+        <v>-288628.6448</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,588 +3059,725 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="C75" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="D75" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="E75" t="n">
-        <v>82.75</v>
+        <v>82</v>
       </c>
       <c r="F75" t="n">
-        <v>5.7517</v>
+        <v>37.3756</v>
       </c>
       <c r="G75" t="n">
-        <v>-199812.8369999999</v>
+        <v>-288666.0204</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="K75" t="n">
+        <v>82.09999999999999</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>82.22</v>
+        <v>81.92</v>
       </c>
       <c r="C76" t="n">
-        <v>82.11</v>
+        <v>81.92</v>
       </c>
       <c r="D76" t="n">
-        <v>82.22</v>
+        <v>81.92</v>
       </c>
       <c r="E76" t="n">
-        <v>82.11</v>
+        <v>81.92</v>
       </c>
       <c r="F76" t="n">
-        <v>17091.5331</v>
+        <v>774</v>
       </c>
       <c r="G76" t="n">
-        <v>-216904.3700999999</v>
+        <v>-289440.0204</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>82.3</v>
+        <v>81.92</v>
       </c>
       <c r="C77" t="n">
-        <v>82.11</v>
+        <v>81.91</v>
       </c>
       <c r="D77" t="n">
-        <v>82.3</v>
+        <v>81.92</v>
       </c>
       <c r="E77" t="n">
-        <v>82.11</v>
+        <v>81.91</v>
       </c>
       <c r="F77" t="n">
-        <v>48397.677</v>
+        <v>12394.5056</v>
       </c>
       <c r="G77" t="n">
-        <v>-216904.3700999999</v>
+        <v>-301834.526</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="C78" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="D78" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="E78" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="F78" t="n">
-        <v>6000</v>
+        <v>896.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>-210904.3700999999</v>
+        <v>-301834.526</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="K78" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="C79" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="D79" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="E79" t="n">
-        <v>82.2</v>
+        <v>81.91</v>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>23234.455</v>
       </c>
       <c r="G79" t="n">
-        <v>-210904.3700999999</v>
+        <v>-301834.526</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="K79" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>82.20999999999999</v>
+        <v>81.91</v>
       </c>
       <c r="C80" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="D80" t="n">
-        <v>82.20999999999999</v>
+        <v>81.91</v>
       </c>
       <c r="E80" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="F80" t="n">
-        <v>4000</v>
+        <v>19680.5733</v>
       </c>
       <c r="G80" t="n">
-        <v>-210904.3700999999</v>
+        <v>-321515.0993</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="K80" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="C81" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="D81" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="E81" t="n">
-        <v>82.2</v>
+        <v>81.83</v>
       </c>
       <c r="F81" t="n">
-        <v>8416.2132</v>
+        <v>1628.6999</v>
       </c>
       <c r="G81" t="n">
-        <v>-210904.3700999999</v>
+        <v>-321515.0993</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K81" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82.2</v>
+        <v>81.84</v>
       </c>
       <c r="C82" t="n">
-        <v>82.2</v>
+        <v>81.84</v>
       </c>
       <c r="D82" t="n">
-        <v>82.2</v>
+        <v>81.84</v>
       </c>
       <c r="E82" t="n">
-        <v>82.2</v>
+        <v>81.84</v>
       </c>
       <c r="F82" t="n">
-        <v>544.908</v>
+        <v>199.5</v>
       </c>
       <c r="G82" t="n">
-        <v>-210904.3700999999</v>
+        <v>-321315.5993</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K82" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1614.092</v>
+        <v>21</v>
       </c>
       <c r="G83" t="n">
-        <v>-210904.3700999999</v>
+        <v>-321294.5993</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="K83" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>82.48</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>82.48</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>82.48</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>82.48</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>363.7247</v>
+        <v>56</v>
       </c>
       <c r="G84" t="n">
-        <v>-210540.6454</v>
+        <v>-321294.5993</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>82.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>60.3907</v>
+        <v>597</v>
       </c>
       <c r="G85" t="n">
-        <v>-210480.2547</v>
+        <v>-321294.5993</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K85" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>242.1601</v>
+        <v>298.5</v>
       </c>
       <c r="G86" t="n">
-        <v>-210238.0946</v>
+        <v>-321294.5993</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82.51000000000001</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>82.51000000000001</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>82.51000000000001</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>82.51000000000001</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>364.39</v>
+        <v>99.5</v>
       </c>
       <c r="G87" t="n">
-        <v>-210602.4846</v>
+        <v>-321394.0993</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>82.51000000000001</v>
+        <v>81.83</v>
       </c>
       <c r="C88" t="n">
-        <v>82.51000000000001</v>
+        <v>81.83</v>
       </c>
       <c r="D88" t="n">
-        <v>82.51000000000001</v>
+        <v>81.83</v>
       </c>
       <c r="E88" t="n">
-        <v>82.51000000000001</v>
+        <v>81.83</v>
       </c>
       <c r="F88" t="n">
-        <v>493.04</v>
+        <v>4972.4885</v>
       </c>
       <c r="G88" t="n">
-        <v>-210602.4846</v>
+        <v>-326366.5878</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.5</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>82.5</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>82.5</v>
       </c>
       <c r="E89" t="n">
-        <v>82.5</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>242.4243</v>
+        <v>1623.0585</v>
       </c>
       <c r="G89" t="n">
-        <v>-210844.9089</v>
+        <v>-324743.5293</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K89" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="C90" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="D90" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="E90" t="n">
-        <v>82.39</v>
+        <v>82.5</v>
       </c>
       <c r="F90" t="n">
-        <v>26.6395</v>
+        <v>882.2646</v>
       </c>
       <c r="G90" t="n">
-        <v>-210871.5484</v>
+        <v>-323861.2647</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="K90" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="C91" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="D91" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="E91" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="F91" t="n">
-        <v>9147.360500000001</v>
+        <v>846.9325</v>
       </c>
       <c r="G91" t="n">
-        <v>-210871.5484</v>
+        <v>-323861.2647</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3590,33 +3786,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="C92" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="D92" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="E92" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="F92" t="n">
-        <v>1872.4388</v>
+        <v>1541.4305</v>
       </c>
       <c r="G92" t="n">
-        <v>-210871.5484</v>
+        <v>-323861.2647</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3625,33 +3828,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="C93" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="D93" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="E93" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="F93" t="n">
-        <v>3780.896</v>
+        <v>7527.6522</v>
       </c>
       <c r="G93" t="n">
-        <v>-210871.5484</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3660,33 +3870,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="C94" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="D94" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="E94" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="F94" t="n">
-        <v>11342.9945</v>
+        <v>6645.9937</v>
       </c>
       <c r="G94" t="n">
-        <v>-210871.5484</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3695,33 +3912,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="C95" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="D95" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="E95" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="F95" t="n">
-        <v>13237.1946</v>
+        <v>1077.8518</v>
       </c>
       <c r="G95" t="n">
-        <v>-210871.5484</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3730,33 +3954,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="C96" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="D96" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="E96" t="n">
-        <v>82.39</v>
+        <v>82.59</v>
       </c>
       <c r="F96" t="n">
-        <v>9047.6379</v>
+        <v>5004.1901</v>
       </c>
       <c r="G96" t="n">
-        <v>-210871.5484</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3765,33 +3996,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>82.2</v>
+        <v>82.59</v>
       </c>
       <c r="C97" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D97" t="n">
-        <v>82.2</v>
+        <v>82.59</v>
       </c>
       <c r="E97" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F97" t="n">
-        <v>1474.5394</v>
+        <v>1706.383</v>
       </c>
       <c r="G97" t="n">
-        <v>-212346.0878</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3800,33 +4038,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C98" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D98" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E98" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F98" t="n">
-        <v>4414.077</v>
+        <v>438.1241</v>
       </c>
       <c r="G98" t="n">
-        <v>-212346.0878</v>
+        <v>-316333.6125</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3835,33 +4080,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C99" t="n">
-        <v>82.01000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="D99" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E99" t="n">
-        <v>82.01000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="F99" t="n">
-        <v>5888.6165</v>
+        <v>3146.6139</v>
       </c>
       <c r="G99" t="n">
-        <v>-218234.7043</v>
+        <v>-319480.2264</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3870,33 +4122,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D100" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="E100" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F100" t="n">
-        <v>2320.0008</v>
+        <v>2567.3635</v>
       </c>
       <c r="G100" t="n">
-        <v>-220554.7051</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3905,33 +4164,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>82.48999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C101" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D101" t="n">
-        <v>82.81999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E101" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F101" t="n">
-        <v>97202.9734</v>
+        <v>1854.2437</v>
       </c>
       <c r="G101" t="n">
-        <v>-220554.7051</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3940,33 +4206,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>82.11</v>
+        <v>82.59</v>
       </c>
       <c r="C102" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D102" t="n">
-        <v>82.11</v>
+        <v>82.59</v>
       </c>
       <c r="E102" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F102" t="n">
-        <v>64.6551</v>
+        <v>3883.1649</v>
       </c>
       <c r="G102" t="n">
-        <v>-220490.05</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3975,68 +4248,82 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C103" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D103" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E103" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F103" t="n">
-        <v>4315.6988</v>
+        <v>639.1917</v>
       </c>
       <c r="G103" t="n">
-        <v>-220490.05</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
-        <v>1</v>
-      </c>
+        <v>1.000968331303289</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C104" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="D104" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E104" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="F104" t="n">
-        <v>731.6547</v>
+        <v>3136.0307</v>
       </c>
       <c r="G104" t="n">
-        <v>-221221.7047</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,34 +4337,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>82.2</v>
+        <v>82.59</v>
       </c>
       <c r="C105" t="n">
-        <v>82.31</v>
+        <v>82.59</v>
       </c>
       <c r="D105" t="n">
-        <v>82.31</v>
+        <v>82.59</v>
       </c>
       <c r="E105" t="n">
-        <v>82.2</v>
+        <v>82.59</v>
       </c>
       <c r="F105" t="n">
-        <v>4972.4885</v>
+        <v>48820.5466</v>
       </c>
       <c r="G105" t="n">
-        <v>-216249.2162</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4085,34 +4373,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C106" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D106" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E106" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F106" t="n">
-        <v>849.2478</v>
+        <v>439.9291</v>
       </c>
       <c r="G106" t="n">
-        <v>-217098.464</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4120,28 +4409,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="C107" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D107" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="E107" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F107" t="n">
-        <v>8720.9123</v>
+        <v>581.8745</v>
       </c>
       <c r="G107" t="n">
-        <v>-217098.464</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,28 +4445,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C108" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D108" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E108" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F108" t="n">
-        <v>1643.493</v>
+        <v>60.54001695120475</v>
       </c>
       <c r="G108" t="n">
-        <v>-215454.971</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,28 +4481,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C109" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D109" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E109" t="n">
-        <v>82.20999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F109" t="n">
-        <v>2010</v>
+        <v>1686.5059</v>
       </c>
       <c r="G109" t="n">
-        <v>-215454.971</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,28 +4517,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C110" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="D110" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E110" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="F110" t="n">
-        <v>7933.499</v>
+        <v>3183.7365</v>
       </c>
       <c r="G110" t="n">
-        <v>-223388.47</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,28 +4553,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C111" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="D111" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E111" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="F111" t="n">
-        <v>515</v>
+        <v>1995.8868</v>
       </c>
       <c r="G111" t="n">
-        <v>-223388.47</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,28 +4589,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="C112" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D112" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="E112" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F112" t="n">
-        <v>86076.72530000001</v>
+        <v>4190.257</v>
       </c>
       <c r="G112" t="n">
-        <v>-309465.1953</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,28 +4625,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="C113" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D113" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="E113" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F113" t="n">
-        <v>11500</v>
+        <v>9180.7263</v>
       </c>
       <c r="G113" t="n">
-        <v>-309465.1953</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,28 +4661,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="C114" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="D114" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="E114" t="n">
-        <v>82</v>
+        <v>82.59</v>
       </c>
       <c r="F114" t="n">
-        <v>24316.8021</v>
+        <v>3684.772</v>
       </c>
       <c r="G114" t="n">
-        <v>-309465.1953</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,28 +4697,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>82.09999999999999</v>
+        <v>82.52</v>
       </c>
       <c r="C115" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="D115" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="E115" t="n">
-        <v>82.09999999999999</v>
+        <v>82.52</v>
       </c>
       <c r="F115" t="n">
-        <v>20836.5505</v>
+        <v>2885.6435</v>
       </c>
       <c r="G115" t="n">
-        <v>-288628.6448</v>
+        <v>-316912.8629</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,28 +4733,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="C116" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>82.09999999999999</v>
+        <v>82.59</v>
       </c>
       <c r="F116" t="n">
-        <v>184.1534</v>
+        <v>7772.4175</v>
       </c>
       <c r="G116" t="n">
-        <v>-288628.6448</v>
+        <v>-309140.4454</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,28 +4769,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>82</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>37.3756</v>
+        <v>2430.1156</v>
       </c>
       <c r="G117" t="n">
-        <v>-288666.0204</v>
+        <v>-309140.4454</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,28 +4805,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>774</v>
+        <v>1482.7656</v>
       </c>
       <c r="G118" t="n">
-        <v>-289440.0204</v>
+        <v>-309140.4454</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,28 +4841,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>81.91</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>81.92</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>81.91</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>12394.5056</v>
+        <v>9639.2894</v>
       </c>
       <c r="G119" t="n">
-        <v>-301834.526</v>
+        <v>-309140.4454</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,1494 +4877,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C120" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="D120" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E120" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="F120" t="n">
-        <v>896.9999</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-301834.526</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C121" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="D121" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E121" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="F121" t="n">
-        <v>23234.455</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-301834.526</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="C122" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="D122" t="n">
-        <v>81.91</v>
-      </c>
-      <c r="E122" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="F122" t="n">
-        <v>19680.5733</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-321515.0993</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="C123" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="D123" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="E123" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1628.6999</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-321515.0993</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="C124" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="D124" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="E124" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="F124" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-321315.5993</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>21</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E126" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>56</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C127" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D127" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E127" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F127" t="n">
-        <v>597</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C128" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F128" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="C129" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="F129" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-321394.0993</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="C130" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="D130" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="E130" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4972.4885</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-326366.5878</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="K130" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="D131" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1623.0585</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-324743.5293</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="K131" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D132" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E132" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>882.2646</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C133" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D133" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E133" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="F133" t="n">
-        <v>846.9325</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C134" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D134" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E134" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1541.4305</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C135" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D135" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E135" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F135" t="n">
-        <v>7527.6522</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C136" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D136" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E136" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6645.9937</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C137" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D137" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E137" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1077.8518</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C138" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D138" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E138" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5004.1901</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C139" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D139" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E139" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1706.383</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C140" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D140" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E140" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F140" t="n">
-        <v>438.1241</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C141" t="n">
-        <v>82.31</v>
-      </c>
-      <c r="D141" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E141" t="n">
-        <v>82.31</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3146.6139</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-319480.2264</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C142" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D142" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E142" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2567.3635</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C143" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D143" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E143" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1854.2437</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C144" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D144" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E144" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3883.1649</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C145" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D145" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E145" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F145" t="n">
-        <v>639.1917</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C146" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D146" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E146" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3136.0307</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C147" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D147" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E147" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F147" t="n">
-        <v>48820.5466</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C148" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D148" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E148" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F148" t="n">
-        <v>439.9291</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C149" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D149" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E149" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F149" t="n">
-        <v>581.8745</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C150" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D150" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E150" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F150" t="n">
-        <v>60.54001695120475</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C151" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D151" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E151" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1686.5059</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C152" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D152" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E152" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3183.7365</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C153" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D153" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E153" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1995.8868</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C154" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D154" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E154" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4190.257</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C155" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D155" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E155" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F155" t="n">
-        <v>9180.7263</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C156" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D156" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E156" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3684.772</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>82.52</v>
-      </c>
-      <c r="C157" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="D157" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="E157" t="n">
-        <v>82.52</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2885.6435</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="C158" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7772.4175</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2430.1156</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1482.7656</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="C161" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E161" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>9639.2894</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.98</v>
+        <v>80.75</v>
       </c>
       <c r="C2" t="n">
-        <v>81.98</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>81.98</v>
+        <v>80.75</v>
       </c>
       <c r="E2" t="n">
-        <v>81.98</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>23941.7739</v>
+        <v>11598</v>
       </c>
       <c r="G2" t="n">
-        <v>-228663.7121</v>
+        <v>-162813.7852</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>2555.1999</v>
       </c>
       <c r="G3" t="n">
-        <v>-228563.7121</v>
+        <v>-162813.7852</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="n">
-        <v>3341.7523</v>
+        <v>1800</v>
       </c>
       <c r="G4" t="n">
-        <v>-228563.7121</v>
+        <v>-161013.7852</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80.70999999999999</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>80.7</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>80.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1002.5183</v>
+        <v>21950.6063</v>
       </c>
       <c r="G5" t="n">
-        <v>-228563.7121</v>
+        <v>-182964.3915</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>81</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +594,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81.61</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>81.61</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>81.61</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>81.61</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>6.2316</v>
       </c>
       <c r="G6" t="n">
-        <v>-228663.7121</v>
+        <v>-182958.1599</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +638,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="C7" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="D7" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="E7" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="F7" t="n">
-        <v>18350</v>
+        <v>197</v>
       </c>
       <c r="G7" t="n">
-        <v>-210313.7121</v>
+        <v>-182761.1599</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +662,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="C8" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="D8" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="E8" t="n">
-        <v>81.62</v>
+        <v>81.55</v>
       </c>
       <c r="F8" t="n">
-        <v>9886.704100000001</v>
+        <v>738.0304</v>
       </c>
       <c r="G8" t="n">
-        <v>-210313.7121</v>
+        <v>-182761.1599</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +704,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +722,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="E9" t="n">
-        <v>82</v>
+        <v>81.55</v>
       </c>
       <c r="F9" t="n">
-        <v>4594.0048</v>
+        <v>64.9696</v>
       </c>
       <c r="G9" t="n">
-        <v>-205719.7073</v>
+        <v>-182761.1599</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +746,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E10" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="F10" t="n">
-        <v>21295.5612</v>
+        <v>212.0059</v>
       </c>
       <c r="G10" t="n">
-        <v>-205719.7073</v>
+        <v>-182973.1658</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +788,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +806,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81.70999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C11" t="n">
-        <v>81.70999999999999</v>
+        <v>81.55</v>
       </c>
       <c r="D11" t="n">
-        <v>81.70999999999999</v>
+        <v>81.55</v>
       </c>
       <c r="E11" t="n">
-        <v>81.70999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>7092.8375</v>
       </c>
       <c r="G11" t="n">
-        <v>-205819.7073</v>
+        <v>-175880.3283</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +830,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +848,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>81.70999999999999</v>
+        <v>81.84</v>
       </c>
       <c r="C12" t="n">
-        <v>81.7</v>
+        <v>81.75</v>
       </c>
       <c r="D12" t="n">
-        <v>81.70999999999999</v>
+        <v>81.84</v>
       </c>
       <c r="E12" t="n">
-        <v>81.7</v>
+        <v>81.75</v>
       </c>
       <c r="F12" t="n">
-        <v>9826.457</v>
+        <v>10065</v>
       </c>
       <c r="G12" t="n">
-        <v>-215646.1643</v>
+        <v>-165815.3283</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +872,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +890,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82.3</v>
+        <v>81.83</v>
       </c>
       <c r="C13" t="n">
-        <v>82.3</v>
+        <v>81.83</v>
       </c>
       <c r="D13" t="n">
-        <v>82.3</v>
+        <v>81.83</v>
       </c>
       <c r="E13" t="n">
-        <v>82.3</v>
+        <v>81.83</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11000</v>
       </c>
       <c r="G13" t="n">
-        <v>-215636.1643</v>
+        <v>-154815.3283</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +914,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +932,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82.2</v>
+        <v>81.3</v>
       </c>
       <c r="C14" t="n">
-        <v>82.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>82.2</v>
+        <v>81.3</v>
       </c>
       <c r="E14" t="n">
-        <v>82.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>4135.1923</v>
+        <v>29084.1953</v>
       </c>
       <c r="G14" t="n">
-        <v>-219771.3566</v>
+        <v>-183899.5236</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +956,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>6.09</v>
+        <v>9826.457</v>
       </c>
       <c r="G15" t="n">
-        <v>-219771.3566</v>
+        <v>-174073.0666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1016,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>82.3</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>82.3</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>82.2</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>365.7177</v>
+        <v>3947.8553</v>
       </c>
       <c r="G16" t="n">
-        <v>-219405.6389</v>
+        <v>-174073.0666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1040,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1058,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82.29000000000001</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>82.29000000000001</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>82.29000000000001</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>82.29000000000001</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>13038.0607</v>
+        <v>13774.3124</v>
       </c>
       <c r="G17" t="n">
-        <v>-232443.6996</v>
+        <v>-174073.0666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1100,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82.29000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>82.29000000000001</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>82.29000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>82.29000000000001</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>31832.4044</v>
+        <v>8717.950999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-232443.6996</v>
+        <v>-182791.0176</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1124,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1142,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82.3</v>
+        <v>81.16</v>
       </c>
       <c r="C19" t="n">
-        <v>82.3</v>
+        <v>81</v>
       </c>
       <c r="D19" t="n">
-        <v>82.3</v>
+        <v>81.16</v>
       </c>
       <c r="E19" t="n">
-        <v>82.3</v>
+        <v>81</v>
       </c>
       <c r="F19" t="n">
-        <v>214.9548</v>
+        <v>27326.3055</v>
       </c>
       <c r="G19" t="n">
-        <v>-232228.7448</v>
+        <v>-210117.3231</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1166,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1184,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>82.3</v>
+        <v>80.73</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>82.3</v>
+        <v>80.73</v>
       </c>
       <c r="F20" t="n">
-        <v>6.5742</v>
+        <v>82690.4647</v>
       </c>
       <c r="G20" t="n">
-        <v>-232228.7448</v>
+        <v>-292807.7878</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1208,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1226,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82.2</v>
+        <v>81.56</v>
       </c>
       <c r="C21" t="n">
-        <v>82.2</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>82.2</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>82.2</v>
+        <v>81.56</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2823</v>
+        <v>90179.2711</v>
       </c>
       <c r="G21" t="n">
-        <v>-232229.0270999999</v>
+        <v>-202628.5167</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1268,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>81.70999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="C22" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="D22" t="n">
-        <v>81.70999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E22" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="F22" t="n">
-        <v>23.96</v>
+        <v>333.4604</v>
       </c>
       <c r="G22" t="n">
-        <v>-232252.9870999999</v>
+        <v>-202961.9771</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1292,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1310,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="C23" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="E23" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>3595.2297</v>
       </c>
       <c r="G23" t="n">
-        <v>-232242.9870999999</v>
+        <v>-202961.9771</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1334,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1352,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E24" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1920</v>
+        <v>1382.2163</v>
       </c>
       <c r="G24" t="n">
-        <v>-232242.9870999999</v>
+        <v>-204344.1934</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1376,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1394,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="C25" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E25" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="F25" t="n">
-        <v>23828.5837</v>
+        <v>1117.2329</v>
       </c>
       <c r="G25" t="n">
-        <v>-232242.9870999999</v>
+        <v>-204344.1934</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1418,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1436,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82.3</v>
+        <v>81.31</v>
       </c>
       <c r="C26" t="n">
-        <v>82.3</v>
+        <v>81.31</v>
       </c>
       <c r="D26" t="n">
-        <v>82.3</v>
+        <v>81.31</v>
       </c>
       <c r="E26" t="n">
-        <v>82.3</v>
+        <v>81.31</v>
       </c>
       <c r="F26" t="n">
-        <v>3792.7441</v>
+        <v>456.8227</v>
       </c>
       <c r="G26" t="n">
-        <v>-228450.2429999999</v>
+        <v>-204801.0161</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1478,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="C27" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="D27" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="E27" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="F27" t="n">
-        <v>6880.7251</v>
+        <v>975.4424</v>
       </c>
       <c r="G27" t="n">
-        <v>-228450.2429999999</v>
+        <v>-203825.5737</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1522,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="C28" t="n">
-        <v>82.39</v>
+        <v>81.98</v>
       </c>
       <c r="D28" t="n">
-        <v>82.39</v>
+        <v>81.98</v>
       </c>
       <c r="E28" t="n">
-        <v>82.3</v>
+        <v>81.98</v>
       </c>
       <c r="F28" t="n">
-        <v>27102.0922</v>
+        <v>15.9667</v>
       </c>
       <c r="G28" t="n">
-        <v>-201348.1507999999</v>
+        <v>-203825.5737</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1564,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82.41</v>
+        <v>81.5</v>
       </c>
       <c r="C29" t="n">
-        <v>82.41</v>
+        <v>81.5</v>
       </c>
       <c r="D29" t="n">
-        <v>82.41</v>
+        <v>81.5</v>
       </c>
       <c r="E29" t="n">
-        <v>82.41</v>
+        <v>81.5</v>
       </c>
       <c r="F29" t="n">
-        <v>546.3337</v>
+        <v>1030.971</v>
       </c>
       <c r="G29" t="n">
-        <v>-200801.8171</v>
+        <v>-204856.5447</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1588,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1606,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>82.41</v>
+        <v>81.23</v>
       </c>
       <c r="C30" t="n">
-        <v>82.75</v>
+        <v>81.23</v>
       </c>
       <c r="D30" t="n">
-        <v>82.75</v>
+        <v>81.23</v>
       </c>
       <c r="E30" t="n">
-        <v>82.41</v>
+        <v>81.23</v>
       </c>
       <c r="F30" t="n">
-        <v>1011</v>
+        <v>5369.4619</v>
       </c>
       <c r="G30" t="n">
-        <v>-199790.8171</v>
+        <v>-210226.0066</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1630,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1648,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82.3</v>
+        <v>81.12</v>
       </c>
       <c r="C31" t="n">
-        <v>82.3</v>
+        <v>81.12</v>
       </c>
       <c r="D31" t="n">
-        <v>82.3</v>
+        <v>81.12</v>
       </c>
       <c r="E31" t="n">
-        <v>82.3</v>
+        <v>81.12</v>
       </c>
       <c r="F31" t="n">
-        <v>25.5165</v>
+        <v>680</v>
       </c>
       <c r="G31" t="n">
-        <v>-199816.3336</v>
+        <v>-210906.0066</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1672,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1690,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="C32" t="n">
-        <v>82.84999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D32" t="n">
-        <v>82.84999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E32" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="F32" t="n">
-        <v>9.2483</v>
+        <v>310.8272</v>
       </c>
       <c r="G32" t="n">
-        <v>-199807.0852999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1714,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1732,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="C33" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="D33" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="E33" t="n">
-        <v>82.75</v>
+        <v>81.5</v>
       </c>
       <c r="F33" t="n">
-        <v>5.7517</v>
+        <v>1677.6772</v>
       </c>
       <c r="G33" t="n">
-        <v>-199812.8369999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1774,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82.22</v>
+        <v>81.5</v>
       </c>
       <c r="C34" t="n">
-        <v>82.11</v>
+        <v>81.5</v>
       </c>
       <c r="D34" t="n">
-        <v>82.22</v>
+        <v>81.5</v>
       </c>
       <c r="E34" t="n">
-        <v>82.11</v>
+        <v>81.5</v>
       </c>
       <c r="F34" t="n">
-        <v>17091.5331</v>
+        <v>413.4006</v>
       </c>
       <c r="G34" t="n">
-        <v>-216904.3700999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1816,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82.3</v>
+        <v>81.5</v>
       </c>
       <c r="C35" t="n">
-        <v>82.11</v>
+        <v>81.5</v>
       </c>
       <c r="D35" t="n">
-        <v>82.3</v>
+        <v>81.5</v>
       </c>
       <c r="E35" t="n">
-        <v>82.11</v>
+        <v>81.5</v>
       </c>
       <c r="F35" t="n">
-        <v>48397.677</v>
+        <v>1175</v>
       </c>
       <c r="G35" t="n">
-        <v>-216904.3700999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1858,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="C36" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="D36" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="E36" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="F36" t="n">
-        <v>6000</v>
+        <v>1796.4949</v>
       </c>
       <c r="G36" t="n">
-        <v>-210904.3700999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1882,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1900,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="C37" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="D37" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="E37" t="n">
-        <v>82.2</v>
+        <v>81.5</v>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>1985.0003</v>
       </c>
       <c r="G37" t="n">
-        <v>-210904.3700999999</v>
+        <v>-210595.1794</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1924,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1942,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>82.20999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="C38" t="n">
-        <v>82.2</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>82.20999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="E38" t="n">
-        <v>82.2</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>59397.4866</v>
       </c>
       <c r="G38" t="n">
-        <v>-210904.3700999999</v>
+        <v>-269992.666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1966,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1984,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.2</v>
+        <v>81.11</v>
       </c>
       <c r="C39" t="n">
-        <v>82.2</v>
+        <v>81.11</v>
       </c>
       <c r="D39" t="n">
-        <v>82.2</v>
+        <v>81.11</v>
       </c>
       <c r="E39" t="n">
-        <v>82.2</v>
+        <v>81.11</v>
       </c>
       <c r="F39" t="n">
-        <v>8416.2132</v>
+        <v>1681.967</v>
       </c>
       <c r="G39" t="n">
-        <v>-210904.3700999999</v>
+        <v>-268310.699</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2026,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.2</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>82.2</v>
+        <v>81.88</v>
       </c>
       <c r="D40" t="n">
-        <v>82.2</v>
+        <v>81.88</v>
       </c>
       <c r="E40" t="n">
-        <v>82.2</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>544.908</v>
+        <v>5797.8693</v>
       </c>
       <c r="G40" t="n">
-        <v>-210904.3700999999</v>
+        <v>-262512.8296999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2068,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.2</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>82.2</v>
+        <v>81.52</v>
       </c>
       <c r="D41" t="n">
-        <v>82.2</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>82.2</v>
+        <v>81.52</v>
       </c>
       <c r="F41" t="n">
-        <v>1614.092</v>
+        <v>4275</v>
       </c>
       <c r="G41" t="n">
-        <v>-210904.3700999999</v>
+        <v>-266787.8296999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2110,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>82.48</v>
+        <v>81.5</v>
       </c>
       <c r="C42" t="n">
-        <v>82.48</v>
+        <v>81.45</v>
       </c>
       <c r="D42" t="n">
-        <v>82.48</v>
+        <v>81.5</v>
       </c>
       <c r="E42" t="n">
-        <v>82.48</v>
+        <v>81.45</v>
       </c>
       <c r="F42" t="n">
-        <v>363.7247</v>
+        <v>13285.0024</v>
       </c>
       <c r="G42" t="n">
-        <v>-210540.6454</v>
+        <v>-280072.8320999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2134,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>82.5</v>
+        <v>81.45</v>
       </c>
       <c r="C43" t="n">
-        <v>82.5</v>
+        <v>81.45</v>
       </c>
       <c r="D43" t="n">
-        <v>82.5</v>
+        <v>81.45</v>
       </c>
       <c r="E43" t="n">
-        <v>82.5</v>
+        <v>81.45</v>
       </c>
       <c r="F43" t="n">
-        <v>60.3907</v>
+        <v>4893</v>
       </c>
       <c r="G43" t="n">
-        <v>-210480.2547</v>
+        <v>-280072.8320999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2176,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2194,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82.59</v>
+        <v>81.45</v>
       </c>
       <c r="C44" t="n">
-        <v>82.59</v>
+        <v>81.45</v>
       </c>
       <c r="D44" t="n">
-        <v>82.59</v>
+        <v>81.45</v>
       </c>
       <c r="E44" t="n">
-        <v>82.59</v>
+        <v>81.45</v>
       </c>
       <c r="F44" t="n">
-        <v>242.1601</v>
+        <v>1130.3313</v>
       </c>
       <c r="G44" t="n">
-        <v>-210238.0946</v>
+        <v>-280072.8320999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2218,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2236,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82.51000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C45" t="n">
-        <v>82.51000000000001</v>
+        <v>81.52</v>
       </c>
       <c r="D45" t="n">
-        <v>82.51000000000001</v>
+        <v>81.52</v>
       </c>
       <c r="E45" t="n">
-        <v>82.51000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="F45" t="n">
-        <v>364.39</v>
+        <v>17563.3414</v>
       </c>
       <c r="G45" t="n">
-        <v>-210602.4846</v>
+        <v>-262509.4907</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2260,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2278,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82.51000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>82.51000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>82.51000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>82.51000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>493.04</v>
+        <v>183.3398</v>
       </c>
       <c r="G46" t="n">
-        <v>-210602.4846</v>
+        <v>-262326.1508999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2320,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82.5</v>
+        <v>81.87</v>
       </c>
       <c r="C47" t="n">
-        <v>82.5</v>
+        <v>81.87</v>
       </c>
       <c r="D47" t="n">
-        <v>82.5</v>
+        <v>81.87</v>
       </c>
       <c r="E47" t="n">
-        <v>82.5</v>
+        <v>81.87</v>
       </c>
       <c r="F47" t="n">
-        <v>242.4243</v>
+        <v>280</v>
       </c>
       <c r="G47" t="n">
-        <v>-210844.9089</v>
+        <v>-262606.1508999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2362,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>26.6395</v>
+        <v>186.8668</v>
       </c>
       <c r="G48" t="n">
-        <v>-210871.5484</v>
+        <v>-262793.0177</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2386,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2404,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>9147.360500000001</v>
+        <v>462.248</v>
       </c>
       <c r="G49" t="n">
-        <v>-210871.5484</v>
+        <v>-262793.0177</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2428,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2446,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>82.39</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>82.39</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>82.39</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>1872.4388</v>
+        <v>40624.7534</v>
       </c>
       <c r="G50" t="n">
-        <v>-210871.5484</v>
+        <v>-222168.2643</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2488,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82.39</v>
+        <v>81.89</v>
       </c>
       <c r="C51" t="n">
-        <v>82.39</v>
+        <v>81.89</v>
       </c>
       <c r="D51" t="n">
-        <v>82.39</v>
+        <v>81.89</v>
       </c>
       <c r="E51" t="n">
-        <v>82.39</v>
+        <v>81.89</v>
       </c>
       <c r="F51" t="n">
-        <v>3780.896</v>
+        <v>29216.4877</v>
       </c>
       <c r="G51" t="n">
-        <v>-210871.5484</v>
+        <v>-192951.7766</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2530,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82.39</v>
+        <v>81.31</v>
       </c>
       <c r="C52" t="n">
-        <v>82.39</v>
+        <v>81.31</v>
       </c>
       <c r="D52" t="n">
-        <v>82.39</v>
+        <v>81.31</v>
       </c>
       <c r="E52" t="n">
-        <v>82.39</v>
+        <v>81.31</v>
       </c>
       <c r="F52" t="n">
-        <v>11342.9945</v>
+        <v>23.96</v>
       </c>
       <c r="G52" t="n">
-        <v>-210871.5484</v>
+        <v>-192975.7366</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2572,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82.39</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>82.39</v>
+        <v>81.97</v>
       </c>
       <c r="D53" t="n">
-        <v>82.39</v>
+        <v>81.97</v>
       </c>
       <c r="E53" t="n">
-        <v>82.39</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>13237.1946</v>
+        <v>4633</v>
       </c>
       <c r="G53" t="n">
-        <v>-210871.5484</v>
+        <v>-188342.7366</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2614,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82.39</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>82.39</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>82.39</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>82.39</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>9047.6379</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-210871.5484</v>
+        <v>-188842.7366</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2656,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.2</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>82.2</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>1474.5394</v>
+        <v>8971.7672</v>
       </c>
       <c r="G55" t="n">
-        <v>-212346.0878</v>
+        <v>-188842.7366</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2698,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>82.09999999999999</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4414.077</v>
+        <v>7500</v>
       </c>
       <c r="G56" t="n">
-        <v>-212346.0878</v>
+        <v>-188842.7366</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2740,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="C57" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="D57" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="E57" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="F57" t="n">
-        <v>5888.6165</v>
+        <v>6000</v>
       </c>
       <c r="G57" t="n">
-        <v>-218234.7043</v>
+        <v>-182842.7366</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2782,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="C58" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="D58" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="E58" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="F58" t="n">
-        <v>2320.0008</v>
+        <v>830.0216</v>
       </c>
       <c r="G58" t="n">
-        <v>-220554.7051</v>
+        <v>-183672.7582</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2824,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.48999999999999</v>
+        <v>81.97</v>
       </c>
       <c r="C59" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="D59" t="n">
-        <v>82.81999999999999</v>
+        <v>81.97</v>
       </c>
       <c r="E59" t="n">
-        <v>82</v>
+        <v>81.97</v>
       </c>
       <c r="F59" t="n">
-        <v>97202.9734</v>
+        <v>1673.5331</v>
       </c>
       <c r="G59" t="n">
-        <v>-220554.7051</v>
+        <v>-183672.7582</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2866,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.11</v>
+        <v>81.97</v>
       </c>
       <c r="C60" t="n">
-        <v>82.09999999999999</v>
+        <v>81.97</v>
       </c>
       <c r="D60" t="n">
-        <v>82.11</v>
+        <v>81.97</v>
       </c>
       <c r="E60" t="n">
-        <v>82.09999999999999</v>
+        <v>81.97</v>
       </c>
       <c r="F60" t="n">
-        <v>64.6551</v>
+        <v>18124.39</v>
       </c>
       <c r="G60" t="n">
-        <v>-220490.05</v>
+        <v>-183672.7582</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2908,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C61" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="D61" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="E61" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F61" t="n">
-        <v>4315.6988</v>
+        <v>659.6101</v>
       </c>
       <c r="G61" t="n">
-        <v>-220490.05</v>
+        <v>-183013.1481</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2932,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2950,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C62" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="D62" t="n">
-        <v>82.09999999999999</v>
+        <v>82.27</v>
       </c>
       <c r="E62" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="F62" t="n">
-        <v>731.6547</v>
+        <v>16529.88461253191</v>
       </c>
       <c r="G62" t="n">
-        <v>-221221.7047</v>
+        <v>-183013.1481</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2992,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>82.2</v>
+        <v>81.98</v>
       </c>
       <c r="C63" t="n">
-        <v>82.31</v>
+        <v>81.98</v>
       </c>
       <c r="D63" t="n">
-        <v>82.31</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>82.2</v>
+        <v>81.98</v>
       </c>
       <c r="F63" t="n">
-        <v>4972.4885</v>
+        <v>9355</v>
       </c>
       <c r="G63" t="n">
-        <v>-216249.2162</v>
+        <v>-183013.1481</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +3034,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="D64" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="F64" t="n">
-        <v>849.2478</v>
+        <v>2329</v>
       </c>
       <c r="G64" t="n">
-        <v>-217098.464</v>
+        <v>-183013.1481</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2709,19 +3079,19 @@
         <v>82</v>
       </c>
       <c r="C65" t="n">
-        <v>82</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="D65" t="n">
         <v>82</v>
       </c>
       <c r="E65" t="n">
-        <v>82</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>8720.9123</v>
+        <v>541.2868999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-217098.464</v>
+        <v>-182471.8612</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3118,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="D66" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F66" t="n">
-        <v>1643.493</v>
+        <v>46191.8509</v>
       </c>
       <c r="G66" t="n">
-        <v>-215454.971</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3160,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C67" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="D67" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="E67" t="n">
-        <v>82.20999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F67" t="n">
-        <v>2010</v>
+        <v>47135.5802</v>
       </c>
       <c r="G67" t="n">
-        <v>-215454.971</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3202,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="C68" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="D68" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="E68" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="F68" t="n">
-        <v>7933.499</v>
+        <v>11738.2464</v>
       </c>
       <c r="G68" t="n">
-        <v>-223388.47</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2838,8 +3226,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +3244,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="C69" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="D69" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="E69" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="F69" t="n">
-        <v>515</v>
+        <v>36897.0586</v>
       </c>
       <c r="G69" t="n">
-        <v>-223388.47</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3286,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="C70" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="D70" t="n">
-        <v>82.01000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="E70" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="F70" t="n">
-        <v>86076.72530000001</v>
+        <v>980.2546</v>
       </c>
       <c r="G70" t="n">
-        <v>-309465.1953</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2910,8 +3310,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3328,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="C71" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="D71" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="E71" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="F71" t="n">
-        <v>11500</v>
+        <v>554.2671</v>
       </c>
       <c r="G71" t="n">
-        <v>-309465.1953</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3370,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="D72" t="n">
-        <v>82</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>82</v>
+        <v>81.98</v>
       </c>
       <c r="F72" t="n">
-        <v>24316.8021</v>
+        <v>47304.2285</v>
       </c>
       <c r="G72" t="n">
-        <v>-309465.1953</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2982,8 +3394,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3412,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="C73" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="D73" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="E73" t="n">
-        <v>82.09999999999999</v>
+        <v>81.98</v>
       </c>
       <c r="F73" t="n">
-        <v>20836.5505</v>
+        <v>23941.7739</v>
       </c>
       <c r="G73" t="n">
-        <v>-288628.6448</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3018,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3454,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="C74" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="E74" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="F74" t="n">
-        <v>184.1534</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-288628.6448</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,8 +3478,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3078,24 +3508,26 @@
         <v>82</v>
       </c>
       <c r="F75" t="n">
-        <v>37.3756</v>
+        <v>3341.7523</v>
       </c>
       <c r="G75" t="n">
-        <v>-288666.0204</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>82.09999999999999</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+        <v>80.70999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3106,22 +3538,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="C76" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="D76" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="E76" t="n">
-        <v>81.92</v>
+        <v>82</v>
       </c>
       <c r="F76" t="n">
-        <v>774</v>
+        <v>1002.5183</v>
       </c>
       <c r="G76" t="n">
-        <v>-289440.0204</v>
+        <v>-228563.7121</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3131,11 +3563,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3148,22 +3580,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>81.92</v>
+        <v>81.61</v>
       </c>
       <c r="C77" t="n">
-        <v>81.91</v>
+        <v>81.61</v>
       </c>
       <c r="D77" t="n">
-        <v>81.92</v>
+        <v>81.61</v>
       </c>
       <c r="E77" t="n">
-        <v>81.91</v>
+        <v>81.61</v>
       </c>
       <c r="F77" t="n">
-        <v>12394.5056</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>-301834.526</v>
+        <v>-228663.7121</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3173,11 +3605,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3190,34 +3622,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="C78" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="D78" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="E78" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="F78" t="n">
-        <v>896.9999</v>
+        <v>18350</v>
       </c>
       <c r="G78" t="n">
-        <v>-301834.526</v>
+        <v>-210313.7121</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>81.91</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3234,34 +3664,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="C79" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="D79" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="E79" t="n">
-        <v>81.91</v>
+        <v>81.62</v>
       </c>
       <c r="F79" t="n">
-        <v>23234.455</v>
+        <v>9886.704100000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-301834.526</v>
+        <v>-210313.7121</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>81.91</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3278,34 +3706,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>81.91</v>
+        <v>82</v>
       </c>
       <c r="C80" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="D80" t="n">
-        <v>81.91</v>
+        <v>82</v>
       </c>
       <c r="E80" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="F80" t="n">
-        <v>19680.5733</v>
+        <v>4594.0048</v>
       </c>
       <c r="G80" t="n">
-        <v>-321515.0993</v>
+        <v>-205719.7073</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>81.91</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3322,34 +3748,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="D81" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="E81" t="n">
-        <v>81.83</v>
+        <v>82</v>
       </c>
       <c r="F81" t="n">
-        <v>1628.6999</v>
+        <v>21295.5612</v>
       </c>
       <c r="G81" t="n">
-        <v>-321515.0993</v>
+        <v>-205719.7073</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>81.83</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3366,34 +3790,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>81.84</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>81.84</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>81.84</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>81.84</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>199.5</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-321315.5993</v>
+        <v>-205819.7073</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>81.83</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3410,34 +3832,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81.90000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="D83" t="n">
-        <v>81.90000000000001</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="F83" t="n">
-        <v>21</v>
+        <v>9826.457</v>
       </c>
       <c r="G83" t="n">
-        <v>-321294.5993</v>
+        <v>-215646.1643</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>81.84</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3454,34 +3874,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>81.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C84" t="n">
-        <v>81.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D84" t="n">
-        <v>81.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E84" t="n">
-        <v>81.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F84" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-321294.5993</v>
+        <v>-215636.1643</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3498,34 +3916,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C85" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D85" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E85" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F85" t="n">
-        <v>597</v>
+        <v>4135.1923</v>
       </c>
       <c r="G85" t="n">
-        <v>-321294.5993</v>
+        <v>-219771.3566</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3542,42 +3958,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C86" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D86" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E86" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F86" t="n">
-        <v>298.5</v>
+        <v>6.09</v>
       </c>
       <c r="G86" t="n">
-        <v>-321294.5993</v>
+        <v>-219771.3566</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>81.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>82.09999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>1.013461157229588</v>
       </c>
       <c r="N86" t="inlineStr"/>
     </row>
@@ -3586,40 +4000,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>81.84999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C87" t="n">
-        <v>81.84999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D87" t="n">
-        <v>81.84999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E87" t="n">
-        <v>81.84999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="F87" t="n">
-        <v>99.5</v>
+        <v>365.7177</v>
       </c>
       <c r="G87" t="n">
-        <v>-321394.0993</v>
+        <v>-219405.6389</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K87" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3630,40 +4036,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>81.83</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>81.83</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>81.83</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>81.83</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>4972.4885</v>
+        <v>13038.0607</v>
       </c>
       <c r="G88" t="n">
-        <v>-326366.5878</v>
+        <v>-232443.6996</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3674,40 +4072,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.48999999999999</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>82.48999999999999</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>82.5</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>82.48999999999999</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>1623.0585</v>
+        <v>31832.4044</v>
       </c>
       <c r="G89" t="n">
-        <v>-324743.5293</v>
+        <v>-232443.6996</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="K89" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3718,40 +4108,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="C90" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="D90" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="E90" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="F90" t="n">
-        <v>882.2646</v>
+        <v>214.9548</v>
       </c>
       <c r="G90" t="n">
-        <v>-323861.2647</v>
+        <v>-232228.7448</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3762,38 +4144,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="C91" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="D91" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="E91" t="n">
-        <v>82.55</v>
+        <v>82.3</v>
       </c>
       <c r="F91" t="n">
-        <v>846.9325</v>
+        <v>6.5742</v>
       </c>
       <c r="G91" t="n">
-        <v>-323861.2647</v>
+        <v>-232228.7448</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3804,38 +4180,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82.55</v>
+        <v>82.2</v>
       </c>
       <c r="C92" t="n">
-        <v>82.55</v>
+        <v>82.2</v>
       </c>
       <c r="D92" t="n">
-        <v>82.55</v>
+        <v>82.2</v>
       </c>
       <c r="E92" t="n">
-        <v>82.55</v>
+        <v>82.2</v>
       </c>
       <c r="F92" t="n">
-        <v>1541.4305</v>
+        <v>0.2823</v>
       </c>
       <c r="G92" t="n">
-        <v>-323861.2647</v>
+        <v>-232229.0270999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3846,38 +4216,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>82.59</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>82.59</v>
+        <v>81.7</v>
       </c>
       <c r="D93" t="n">
-        <v>82.59</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>82.59</v>
+        <v>81.7</v>
       </c>
       <c r="F93" t="n">
-        <v>7527.6522</v>
+        <v>23.96</v>
       </c>
       <c r="G93" t="n">
-        <v>-316333.6125</v>
+        <v>-232252.9870999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3888,22 +4252,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="C94" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="D94" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="E94" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="F94" t="n">
-        <v>6645.9937</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-316333.6125</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3912,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4288,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="D95" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="E95" t="n">
-        <v>82.59</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1077.8518</v>
+        <v>1920</v>
       </c>
       <c r="G95" t="n">
-        <v>-316333.6125</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3954,14 +4312,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3972,22 +4324,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="C96" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="D96" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="E96" t="n">
-        <v>82.59</v>
+        <v>82</v>
       </c>
       <c r="F96" t="n">
-        <v>5004.1901</v>
+        <v>23828.5837</v>
       </c>
       <c r="G96" t="n">
-        <v>-316333.6125</v>
+        <v>-232242.9870999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3996,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +4360,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="C97" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="D97" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="E97" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="F97" t="n">
-        <v>1706.383</v>
+        <v>3792.7441</v>
       </c>
       <c r="G97" t="n">
-        <v>-316333.6125</v>
+        <v>-228450.2429999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4038,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4056,38 +4396,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="C98" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="D98" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="E98" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="F98" t="n">
-        <v>438.1241</v>
+        <v>6880.7251</v>
       </c>
       <c r="G98" t="n">
-        <v>-316333.6125</v>
+        <v>-228450.2429999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4098,38 +4432,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="C99" t="n">
-        <v>82.31</v>
+        <v>82.39</v>
       </c>
       <c r="D99" t="n">
-        <v>82.59</v>
+        <v>82.39</v>
       </c>
       <c r="E99" t="n">
-        <v>82.31</v>
+        <v>82.3</v>
       </c>
       <c r="F99" t="n">
-        <v>3146.6139</v>
+        <v>27102.0922</v>
       </c>
       <c r="G99" t="n">
-        <v>-319480.2264</v>
+        <v>-201348.1507999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4140,38 +4468,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="C100" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="D100" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="E100" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="F100" t="n">
-        <v>2567.3635</v>
+        <v>546.3337</v>
       </c>
       <c r="G100" t="n">
-        <v>-316912.8629</v>
+        <v>-200801.8171</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4182,38 +4504,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="C101" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="D101" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="E101" t="n">
-        <v>82.59</v>
+        <v>82.41</v>
       </c>
       <c r="F101" t="n">
-        <v>1854.2437</v>
+        <v>1011</v>
       </c>
       <c r="G101" t="n">
-        <v>-316912.8629</v>
+        <v>-199790.8171</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4224,38 +4540,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="C102" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="D102" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="E102" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="F102" t="n">
-        <v>3883.1649</v>
+        <v>25.5165</v>
       </c>
       <c r="G102" t="n">
-        <v>-316912.8629</v>
+        <v>-199816.3336</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4266,40 +4576,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="C103" t="n">
-        <v>82.59</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>82.59</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="F103" t="n">
-        <v>639.1917</v>
+        <v>9.2483</v>
       </c>
       <c r="G103" t="n">
-        <v>-316912.8629</v>
+        <v>-199807.0852999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>1.000968331303289</v>
+        <v>1</v>
       </c>
       <c r="N103" t="inlineStr"/>
     </row>
@@ -4308,28 +4612,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="C104" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="D104" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="E104" t="n">
-        <v>82.59</v>
+        <v>82.75</v>
       </c>
       <c r="F104" t="n">
-        <v>3136.0307</v>
+        <v>5.7517</v>
       </c>
       <c r="G104" t="n">
-        <v>-316912.8629</v>
+        <v>-199812.8369999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4344,22 +4648,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>82.59</v>
+        <v>82.22</v>
       </c>
       <c r="C105" t="n">
-        <v>82.59</v>
+        <v>82.11</v>
       </c>
       <c r="D105" t="n">
-        <v>82.59</v>
+        <v>82.22</v>
       </c>
       <c r="E105" t="n">
-        <v>82.59</v>
+        <v>82.11</v>
       </c>
       <c r="F105" t="n">
-        <v>48820.5466</v>
+        <v>17091.5331</v>
       </c>
       <c r="G105" t="n">
-        <v>-316912.8629</v>
+        <v>-216904.3700999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4380,28 +4684,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="C106" t="n">
-        <v>82.59</v>
+        <v>82.11</v>
       </c>
       <c r="D106" t="n">
-        <v>82.59</v>
+        <v>82.3</v>
       </c>
       <c r="E106" t="n">
-        <v>82.59</v>
+        <v>82.11</v>
       </c>
       <c r="F106" t="n">
-        <v>439.9291</v>
+        <v>48397.677</v>
       </c>
       <c r="G106" t="n">
-        <v>-316912.8629</v>
+        <v>-216904.3700999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4416,22 +4720,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="C107" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D107" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="E107" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F107" t="n">
-        <v>581.8745</v>
+        <v>6000</v>
       </c>
       <c r="G107" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4452,22 +4756,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="C108" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D108" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="E108" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F108" t="n">
-        <v>60.54001695120475</v>
+        <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4488,22 +4792,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>82.59</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D109" t="n">
-        <v>82.59</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F109" t="n">
-        <v>1686.5059</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4524,22 +4828,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="C110" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D110" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="E110" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F110" t="n">
-        <v>3183.7365</v>
+        <v>8416.2132</v>
       </c>
       <c r="G110" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4560,22 +4864,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="C111" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D111" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="E111" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F111" t="n">
-        <v>1995.8868</v>
+        <v>544.908</v>
       </c>
       <c r="G111" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4596,22 +4900,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="C112" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="D112" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="E112" t="n">
-        <v>82.59</v>
+        <v>82.2</v>
       </c>
       <c r="F112" t="n">
-        <v>4190.257</v>
+        <v>1614.092</v>
       </c>
       <c r="G112" t="n">
-        <v>-316912.8629</v>
+        <v>-210904.3700999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4632,22 +4936,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>82.59</v>
+        <v>82.48</v>
       </c>
       <c r="C113" t="n">
-        <v>82.59</v>
+        <v>82.48</v>
       </c>
       <c r="D113" t="n">
-        <v>82.59</v>
+        <v>82.48</v>
       </c>
       <c r="E113" t="n">
-        <v>82.59</v>
+        <v>82.48</v>
       </c>
       <c r="F113" t="n">
-        <v>9180.7263</v>
+        <v>363.7247</v>
       </c>
       <c r="G113" t="n">
-        <v>-316912.8629</v>
+        <v>-210540.6454</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4668,22 +4972,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="C114" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="D114" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="E114" t="n">
-        <v>82.59</v>
+        <v>82.5</v>
       </c>
       <c r="F114" t="n">
-        <v>3684.772</v>
+        <v>60.3907</v>
       </c>
       <c r="G114" t="n">
-        <v>-316912.8629</v>
+        <v>-210480.2547</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4704,7 +5008,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>82.52</v>
+        <v>82.59</v>
       </c>
       <c r="C115" t="n">
         <v>82.59</v>
@@ -4713,13 +5017,13 @@
         <v>82.59</v>
       </c>
       <c r="E115" t="n">
-        <v>82.52</v>
+        <v>82.59</v>
       </c>
       <c r="F115" t="n">
-        <v>2885.6435</v>
+        <v>242.1601</v>
       </c>
       <c r="G115" t="n">
-        <v>-316912.8629</v>
+        <v>-210238.0946</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4740,22 +5044,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>82.59</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>82.59</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>7772.4175</v>
+        <v>364.39</v>
       </c>
       <c r="G116" t="n">
-        <v>-309140.4454</v>
+        <v>-210602.4846</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4776,22 +5080,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>82.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>2430.1156</v>
+        <v>493.04</v>
       </c>
       <c r="G117" t="n">
-        <v>-309140.4454</v>
+        <v>-210602.4846</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4812,22 +5116,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C118" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="D118" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E118" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="F118" t="n">
-        <v>1482.7656</v>
+        <v>242.4243</v>
       </c>
       <c r="G118" t="n">
-        <v>-309140.4454</v>
+        <v>-210844.9089</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4848,22 +5152,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>82.59999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="C119" t="n">
-        <v>82.59999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="D119" t="n">
-        <v>82.59999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="E119" t="n">
-        <v>82.59999999999999</v>
+        <v>82.39</v>
       </c>
       <c r="F119" t="n">
-        <v>9639.2894</v>
+        <v>26.6395</v>
       </c>
       <c r="G119" t="n">
-        <v>-309140.4454</v>
+        <v>-210871.5484</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4879,6 +5183,2562 @@
       </c>
       <c r="N119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C120" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D120" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E120" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9147.360500000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C121" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D121" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E121" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1872.4388</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C122" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D122" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E122" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3780.896</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C123" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D123" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E123" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11342.9945</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C124" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D124" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E124" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13237.1946</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="C125" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="D125" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="E125" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9047.6379</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-210871.5484</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1474.5394</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-212346.0878</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4414.077</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-212346.0878</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5888.6165</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-218234.7043</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>82</v>
+      </c>
+      <c r="C129" t="n">
+        <v>82</v>
+      </c>
+      <c r="D129" t="n">
+        <v>82</v>
+      </c>
+      <c r="E129" t="n">
+        <v>82</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2320.0008</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-220554.7051</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>82</v>
+      </c>
+      <c r="D130" t="n">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>82</v>
+      </c>
+      <c r="F130" t="n">
+        <v>97202.9734</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-220554.7051</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="C131" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="E131" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>64.6551</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-220490.05</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4315.6988</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-220490.05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>731.6547</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-221221.7047</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="D134" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="E134" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4972.4885</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-216249.2162</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>82</v>
+      </c>
+      <c r="D135" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>82</v>
+      </c>
+      <c r="F135" t="n">
+        <v>849.2478</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-217098.464</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>82</v>
+      </c>
+      <c r="C136" t="n">
+        <v>82</v>
+      </c>
+      <c r="D136" t="n">
+        <v>82</v>
+      </c>
+      <c r="E136" t="n">
+        <v>82</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8720.9123</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-217098.464</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1643.493</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-215454.971</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-215454.971</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7933.499</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-223388.47</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>515</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-223388.47</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>82</v>
+      </c>
+      <c r="D141" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>82</v>
+      </c>
+      <c r="F141" t="n">
+        <v>86076.72530000001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-309465.1953</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>82</v>
+      </c>
+      <c r="C142" t="n">
+        <v>82</v>
+      </c>
+      <c r="D142" t="n">
+        <v>82</v>
+      </c>
+      <c r="E142" t="n">
+        <v>82</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-309465.1953</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>82</v>
+      </c>
+      <c r="C143" t="n">
+        <v>82</v>
+      </c>
+      <c r="D143" t="n">
+        <v>82</v>
+      </c>
+      <c r="E143" t="n">
+        <v>82</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24316.8021</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-309465.1953</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D144" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20836.5505</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-288628.6448</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F145" t="n">
+        <v>184.1534</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-288628.6448</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>82</v>
+      </c>
+      <c r="C146" t="n">
+        <v>82</v>
+      </c>
+      <c r="D146" t="n">
+        <v>82</v>
+      </c>
+      <c r="E146" t="n">
+        <v>82</v>
+      </c>
+      <c r="F146" t="n">
+        <v>37.3756</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-288666.0204</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="C147" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="D147" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="E147" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="F147" t="n">
+        <v>774</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-289440.0204</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="C148" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D148" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="E148" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12394.5056</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-301834.526</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C149" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D149" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E149" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="F149" t="n">
+        <v>896.9999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-301834.526</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C150" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D150" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E150" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="F150" t="n">
+        <v>23234.455</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-301834.526</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="C151" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="D151" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="E151" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19680.5733</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-321515.0993</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="C152" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="D152" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="E152" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1628.6999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-321515.0993</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="C153" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="D153" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="E153" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="F153" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-321315.5993</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>56</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>597</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-321394.0993</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="D159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="E159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4972.4885</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-326366.5878</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1623.0585</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-324743.5293</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D161" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E161" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>882.2646</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-323861.2647</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="F162" t="n">
+        <v>846.9325</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-323861.2647</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C163" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D163" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E163" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1541.4305</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-323861.2647</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C164" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D164" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E164" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7527.6522</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C165" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D165" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E165" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6645.9937</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C166" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D166" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E166" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1077.8518</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C167" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D167" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E167" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5004.1901</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C168" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D168" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E168" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1706.383</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C169" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D169" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E169" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F169" t="n">
+        <v>438.1241</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-316333.6125</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C170" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="D170" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E170" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3146.6139</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-319480.2264</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C171" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D171" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E171" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2567.3635</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C172" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D172" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E172" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1854.2437</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C173" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D173" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E173" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3883.1649</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C174" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D174" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E174" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F174" t="n">
+        <v>639.1917</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C175" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D175" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E175" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3136.0307</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C176" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D176" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E176" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F176" t="n">
+        <v>48820.5466</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C177" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D177" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E177" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F177" t="n">
+        <v>439.9291</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C178" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D178" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E178" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F178" t="n">
+        <v>581.8745</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C179" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D179" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E179" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F179" t="n">
+        <v>60.54001695120475</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C180" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D180" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E180" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1686.5059</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C181" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D181" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E181" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3183.7365</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D182" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E182" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1995.8868</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C183" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D183" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E183" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4190.257</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C184" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D184" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E184" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9180.7263</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3684.772</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>82.52</v>
+      </c>
+      <c r="C186" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="D186" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="E186" t="n">
+        <v>82.52</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2885.6435</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-316912.8629</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="C187" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7772.4175</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-309140.4454</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2430.1156</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-309140.4454</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1482.7656</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-309140.4454</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>9639.2894</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-309140.4454</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>-161013.7852</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,26 +550,21 @@
         <v>-182964.3915</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>81</v>
       </c>
-      <c r="K5" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,26 +589,19 @@
         <v>-182958.1599</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,24 +626,21 @@
         <v>-182761.1599</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,22 +667,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -740,24 +702,21 @@
         <v>-182761.1599</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,22 +743,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,22 +780,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,22 +817,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,22 +854,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,22 +891,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,22 +928,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1036,22 +965,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,22 +1002,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,24 +1037,21 @@
         <v>-182791.0176</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,24 +1076,21 @@
         <v>-210117.3231</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,22 +1117,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1246,22 +1154,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1288,22 +1191,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1330,22 +1228,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1372,22 +1265,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1414,22 +1302,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1456,22 +1339,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1496,26 +1374,21 @@
         <v>-203825.5737</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>81.31</v>
       </c>
-      <c r="K27" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1540,24 +1413,21 @@
         <v>-203825.5737</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.98</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,22 +1454,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,22 +1491,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,22 +1528,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,22 +1565,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,22 +1602,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,22 +1639,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,22 +1676,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,22 +1713,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,22 +1750,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,22 +1787,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2002,24 +1822,21 @@
         <v>-268310.699</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,22 +1863,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2088,22 +1900,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2130,22 +1937,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,22 +1974,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2214,22 +2011,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2256,22 +2048,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,22 +2085,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2340,22 +2122,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2382,22 +2159,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2424,22 +2196,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2466,22 +2233,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2508,22 +2270,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2550,22 +2307,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2590,24 +2342,21 @@
         <v>-188342.7366</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>81.31</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2632,24 +2381,21 @@
         <v>-188842.7366</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>81.97</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2676,22 +2422,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2718,22 +2459,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2760,22 +2496,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2802,22 +2533,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2844,22 +2570,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2886,22 +2607,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2928,22 +2644,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2970,22 +2681,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3012,22 +2718,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3054,22 +2755,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3096,22 +2792,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3138,22 +2829,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3180,22 +2866,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3222,22 +2903,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3264,22 +2940,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3306,22 +2977,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3348,22 +3014,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3390,22 +3051,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3432,22 +3088,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3474,22 +3125,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3516,22 +3162,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3558,22 +3199,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3600,22 +3236,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3642,22 +3273,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3684,22 +3310,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3726,22 +3347,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3768,22 +3384,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3810,22 +3421,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3852,22 +3458,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3894,22 +3495,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3936,22 +3532,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3978,22 +3569,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1.013461157229588</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4020,16 +3606,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4056,16 +3643,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4092,16 +3680,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4128,16 +3717,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4164,16 +3754,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4200,16 +3791,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4236,16 +3828,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4272,16 +3865,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4308,16 +3902,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4344,16 +3939,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4380,16 +3976,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4416,16 +4013,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4452,16 +4050,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4488,16 +4087,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4524,16 +4124,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4558,18 +4159,17 @@
         <v>-199816.3336</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4594,18 +4194,15 @@
         <v>-199807.0852999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4630,18 +4227,15 @@
         <v>-199812.8369999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4666,18 +4260,15 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4702,18 +4293,15 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4738,18 +4326,15 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4774,18 +4359,15 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4810,18 +4392,15 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4848,16 +4427,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4884,16 +4460,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4920,16 +4493,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4956,16 +4526,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4992,16 +4559,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5028,16 +4592,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5064,16 +4625,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5100,16 +4658,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5136,16 +4691,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5172,16 +4724,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5206,18 +4755,15 @@
         <v>-210871.5484</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5244,16 +4790,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5280,16 +4823,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5314,18 +4854,15 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5352,16 +4889,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5388,16 +4922,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5424,16 +4955,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5460,16 +4988,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5496,16 +5021,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5532,16 +5054,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5568,16 +5087,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5602,18 +5118,15 @@
         <v>-220490.05</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5638,18 +5151,15 @@
         <v>-220490.05</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5676,16 +5186,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5712,16 +5219,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5748,16 +5252,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5784,16 +5285,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5820,16 +5318,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5856,16 +5351,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5892,16 +5384,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5928,16 +5417,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5964,16 +5450,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6000,16 +5483,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6036,16 +5516,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6072,16 +5549,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6108,16 +5582,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6144,16 +5615,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6180,16 +5648,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6216,16 +5681,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6252,16 +5714,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6288,16 +5747,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6324,16 +5780,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6358,18 +5811,15 @@
         <v>-321515.0993</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6396,16 +5846,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6432,16 +5879,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6466,18 +5910,15 @@
         <v>-321294.5993</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6502,18 +5943,15 @@
         <v>-321294.5993</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6540,16 +5978,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6574,18 +6009,15 @@
         <v>-321394.0993</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6612,16 +6044,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6648,16 +6077,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6684,16 +6110,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6720,16 +6143,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6756,16 +6176,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6792,16 +6209,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6828,16 +6242,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6864,16 +6275,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6900,16 +6308,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6936,16 +6341,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6972,16 +6374,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7008,16 +6407,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7044,16 +6440,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7080,16 +6473,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7116,16 +6506,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7152,16 +6539,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7188,16 +6572,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7224,16 +6605,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7260,16 +6638,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7296,16 +6671,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7332,16 +6704,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7368,16 +6737,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7404,16 +6770,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7440,16 +6803,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7476,16 +6836,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7512,16 +6869,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7548,16 +6902,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7584,16 +6935,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7620,16 +6968,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7656,16 +7001,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7692,16 +7034,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7728,18 +7067,15 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-162813.7852</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-162813.7852</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-161013.7852</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,2921 +550,2625 @@
         <v>-182964.3915</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.2316</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-182958.1599</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>197</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-182761.1599</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="E8" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>738.0304</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-182761.1599</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>64.9696</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-182761.1599</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>212.0059</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-182973.1658</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="E11" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7092.8375</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-175880.3283</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10065</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-165815.3283</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="C13" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-154815.3283</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29084.1953</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-183899.5236</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9826.457</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-174073.0666</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3947.8553</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-174073.0666</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13774.3124</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-174073.0666</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8717.950999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-182791.0176</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="C19" t="n">
         <v>81</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="D19" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>81</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27326.3055</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-210117.3231</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>80.73</v>
+      </c>
+      <c r="D20" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>80.73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>82690.4647</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-292807.7878</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="C21" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90179.2711</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-202628.5167</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>333.4604</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-202961.9771</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3595.2297</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-202961.9771</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1382.2163</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-204344.1934</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1117.2329</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-204344.1934</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="E26" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="F26" t="n">
+        <v>456.8227</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-204801.0161</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C27" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D27" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E27" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>975.4424</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-203825.5737</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C28" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D28" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E28" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.9667</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-203825.5737</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1030.971</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-204856.5447</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>81.23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>81.23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>81.23</v>
+      </c>
+      <c r="E30" t="n">
+        <v>81.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5369.4619</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-210226.0066</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>680</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-210906.0066</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>310.8272</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1677.6772</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>413.4006</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1796.4949</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1985.0003</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-210595.1794</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>59397.4866</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-269992.666</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1681.967</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-268310.699</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>81.88</v>
+      </c>
+      <c r="D40" t="n">
+        <v>81.88</v>
+      </c>
+      <c r="E40" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5797.8693</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-262512.8296999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D41" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4275</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-266787.8296999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="D42" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13285.0024</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-280072.8320999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="C43" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="D43" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="E43" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4893</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-280072.8320999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="C44" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="D44" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="E44" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1130.3313</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-280072.8320999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="D45" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="E45" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17563.3414</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-262509.4907</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>183.3398</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-262326.1508999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="C47" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="E47" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="F47" t="n">
+        <v>280</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-262606.1508999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>186.8668</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-262793.0177</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>462.248</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-262793.0177</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>40624.7534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-222168.2643</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="C51" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="D51" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="E51" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="F51" t="n">
+        <v>29216.4877</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-192951.7766</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="C52" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="D52" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="E52" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-192975.7366</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="D53" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="E53" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4633</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-188342.7366</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-188842.7366</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8971.7672</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-188842.7366</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-188842.7366</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C57" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D57" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E57" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-182842.7366</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="C58" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="D58" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="E58" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="F58" t="n">
+        <v>830.0216</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-183672.7582</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="C59" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="D59" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="E59" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1673.5331</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-183672.7582</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="C60" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="D60" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="E60" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="F60" t="n">
+        <v>18124.39</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-183672.7582</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C61" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D61" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E61" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F61" t="n">
+        <v>659.6101</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-183013.1481</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C62" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D62" t="n">
+        <v>82.27</v>
+      </c>
+      <c r="E62" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F62" t="n">
+        <v>16529.88461253191</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-183013.1481</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C63" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D63" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E63" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9355</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-183013.1481</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D64" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2329</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-183013.1481</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>82</v>
+      </c>
+      <c r="C65" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>82</v>
+      </c>
+      <c r="E65" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>541.2868999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-182471.8612</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D66" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F66" t="n">
+        <v>46191.8509</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C67" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D67" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E67" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F67" t="n">
+        <v>47135.5802</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C68" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D68" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E68" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F68" t="n">
+        <v>11738.2464</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C69" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D69" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E69" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F69" t="n">
+        <v>36897.0586</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C70" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D70" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E70" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F70" t="n">
+        <v>980.2546</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C71" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D71" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E71" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F71" t="n">
+        <v>554.2671</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D72" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F72" t="n">
+        <v>47304.2285</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="C73" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="D73" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="E73" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="F73" t="n">
+        <v>23941.7739</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>82</v>
+      </c>
+      <c r="C74" t="n">
+        <v>82</v>
+      </c>
+      <c r="D74" t="n">
+        <v>82</v>
+      </c>
+      <c r="E74" t="n">
+        <v>82</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-228563.7121</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>82</v>
+      </c>
+      <c r="C75" t="n">
+        <v>82</v>
+      </c>
+      <c r="D75" t="n">
+        <v>82</v>
+      </c>
+      <c r="E75" t="n">
+        <v>82</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3341.7523</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-228563.7121</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>82</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82</v>
+      </c>
+      <c r="D76" t="n">
+        <v>82</v>
+      </c>
+      <c r="E76" t="n">
+        <v>82</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1002.5183</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-228563.7121</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="C77" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="D77" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="E77" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-228663.7121</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="C78" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="D78" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="E78" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="F78" t="n">
+        <v>18350</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-210313.7121</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="C79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="D79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="E79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9886.704100000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-210313.7121</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="J79" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>82</v>
+      </c>
+      <c r="C80" t="n">
+        <v>82</v>
+      </c>
+      <c r="D80" t="n">
+        <v>82</v>
+      </c>
+      <c r="E80" t="n">
+        <v>82</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4594.0048</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-205719.7073</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="J80" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>82</v>
+      </c>
+      <c r="C81" t="n">
+        <v>82</v>
+      </c>
+      <c r="D81" t="n">
+        <v>82</v>
+      </c>
+      <c r="E81" t="n">
+        <v>82</v>
+      </c>
+      <c r="F81" t="n">
+        <v>21295.5612</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-205719.7073</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-205819.7073</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9826.457</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-215646.1643</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>81.26000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>81.26000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>81.26000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>81.26000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.2316</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-182958.1599</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="C7" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="D7" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="F7" t="n">
-        <v>197</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-182761.1599</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81.26000000000001</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="C8" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="E8" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>738.0304</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-182761.1599</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="F9" t="n">
-        <v>64.9696</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-182761.1599</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>212.0059</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-182973.1658</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="D11" t="n">
-        <v>81.55</v>
-      </c>
-      <c r="E11" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7092.8375</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-175880.3283</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="C12" t="n">
-        <v>81.75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="E12" t="n">
-        <v>81.75</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10065</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-165815.3283</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="C13" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="D13" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-154815.3283</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29084.1953</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-183899.5236</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9826.457</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3947.8553</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13774.3124</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>81.15000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>81.15000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8717.950999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-182791.0176</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>81.34999999999999</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>81.16</v>
-      </c>
-      <c r="C19" t="n">
-        <v>81</v>
-      </c>
-      <c r="D19" t="n">
-        <v>81.16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>81</v>
-      </c>
-      <c r="F19" t="n">
-        <v>27326.3055</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-210117.3231</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>81.15000000000001</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>80.73</v>
-      </c>
-      <c r="D20" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>80.73</v>
-      </c>
-      <c r="F20" t="n">
-        <v>82690.4647</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-292807.7878</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>81.56</v>
-      </c>
-      <c r="C21" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>81.56</v>
-      </c>
-      <c r="F21" t="n">
-        <v>90179.2711</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-202628.5167</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>333.4604</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-202961.9771</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3595.2297</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-202961.9771</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1382.2163</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-204344.1934</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1117.2329</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-204344.1934</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="C26" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="D26" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="E26" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="F26" t="n">
-        <v>456.8227</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-204801.0161</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C27" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D27" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E27" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F27" t="n">
-        <v>975.4424</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-203825.5737</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15.9667</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-203825.5737</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1030.971</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-204856.5447</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>81.23</v>
-      </c>
-      <c r="C30" t="n">
-        <v>81.23</v>
-      </c>
-      <c r="D30" t="n">
-        <v>81.23</v>
-      </c>
-      <c r="E30" t="n">
-        <v>81.23</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5369.4619</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-210226.0066</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>81.12</v>
-      </c>
-      <c r="C31" t="n">
-        <v>81.12</v>
-      </c>
-      <c r="D31" t="n">
-        <v>81.12</v>
-      </c>
-      <c r="E31" t="n">
-        <v>81.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>680</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-210906.0066</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>310.8272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1677.6772</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>413.4006</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1175</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1796.4949</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1985.0003</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>81.01000000000001</v>
-      </c>
-      <c r="D38" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>81.01000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>59397.4866</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-269992.666</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>81.11</v>
-      </c>
-      <c r="C39" t="n">
-        <v>81.11</v>
-      </c>
-      <c r="D39" t="n">
-        <v>81.11</v>
-      </c>
-      <c r="E39" t="n">
-        <v>81.11</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1681.967</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-268310.699</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>81.01000000000001</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>81.88</v>
-      </c>
-      <c r="D40" t="n">
-        <v>81.88</v>
-      </c>
-      <c r="E40" t="n">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5797.8693</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-262512.8296999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="C41" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="D41" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="E41" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4275</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-266787.8296999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="D42" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="F42" t="n">
-        <v>13285.0024</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="C43" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="D43" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="E43" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4893</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="C44" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="D44" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="E44" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1130.3313</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="C45" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="D45" t="n">
-        <v>81.52</v>
-      </c>
-      <c r="E45" t="n">
-        <v>81.45</v>
-      </c>
-      <c r="F45" t="n">
-        <v>17563.3414</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-262509.4907</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>183.3398</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-262326.1508999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>81.87</v>
-      </c>
-      <c r="C47" t="n">
-        <v>81.87</v>
-      </c>
-      <c r="D47" t="n">
-        <v>81.87</v>
-      </c>
-      <c r="E47" t="n">
-        <v>81.87</v>
-      </c>
-      <c r="F47" t="n">
-        <v>280</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-262606.1508999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>186.8668</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-262793.0177</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>462.248</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-262793.0177</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>81.79000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="F50" t="n">
-        <v>40624.7534</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-222168.2643</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="C51" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="D51" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="E51" t="n">
-        <v>81.89</v>
-      </c>
-      <c r="F51" t="n">
-        <v>29216.4877</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-192951.7766</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="C52" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="D52" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="E52" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="F52" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-192975.7366</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C53" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="D53" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="E53" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4633</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-188342.7366</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="C54" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="D54" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="F54" t="n">
-        <v>500</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="C55" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="D55" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="E55" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="F55" t="n">
-        <v>8971.7672</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="E56" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C57" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D57" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E57" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-182842.7366</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="C58" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="D58" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="E58" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="F58" t="n">
-        <v>830.0216</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="C59" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="D59" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="E59" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1673.5331</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="C60" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="D60" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="E60" t="n">
-        <v>81.97</v>
-      </c>
-      <c r="F60" t="n">
-        <v>18124.39</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C61" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D61" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E61" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F61" t="n">
-        <v>659.6101</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C62" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D62" t="n">
-        <v>82.27</v>
-      </c>
-      <c r="E62" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F62" t="n">
-        <v>16529.88461253191</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C63" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D63" t="n">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="E63" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F63" t="n">
-        <v>9355</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="C64" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D64" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="E64" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2329</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>82</v>
-      </c>
-      <c r="C65" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="D65" t="n">
-        <v>82</v>
-      </c>
-      <c r="E65" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="F65" t="n">
-        <v>541.2868999999999</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-182471.8612</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="C66" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D66" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="E66" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F66" t="n">
-        <v>46191.8509</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C67" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D67" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E67" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F67" t="n">
-        <v>47135.5802</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C68" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D68" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E68" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F68" t="n">
-        <v>11738.2464</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C69" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D69" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E69" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F69" t="n">
-        <v>36897.0586</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C70" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D70" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E70" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F70" t="n">
-        <v>980.2546</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C71" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D71" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E71" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F71" t="n">
-        <v>554.2671</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="C72" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D72" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F72" t="n">
-        <v>47304.2285</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="C73" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="D73" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="E73" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23941.7739</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>82</v>
-      </c>
-      <c r="C74" t="n">
-        <v>82</v>
-      </c>
-      <c r="D74" t="n">
-        <v>82</v>
-      </c>
-      <c r="E74" t="n">
-        <v>82</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>82</v>
-      </c>
-      <c r="C75" t="n">
-        <v>82</v>
-      </c>
-      <c r="D75" t="n">
-        <v>82</v>
-      </c>
-      <c r="E75" t="n">
-        <v>82</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3341.7523</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>82</v>
-      </c>
-      <c r="C76" t="n">
-        <v>82</v>
-      </c>
-      <c r="D76" t="n">
-        <v>82</v>
-      </c>
-      <c r="E76" t="n">
-        <v>82</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1002.5183</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="C77" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="D77" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="E77" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="C78" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="D78" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="E78" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="F78" t="n">
-        <v>18350</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-210313.7121</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="C79" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="D79" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="E79" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9886.704100000001</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-210313.7121</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>82</v>
-      </c>
-      <c r="C80" t="n">
-        <v>82</v>
-      </c>
-      <c r="D80" t="n">
-        <v>82</v>
-      </c>
-      <c r="E80" t="n">
-        <v>82</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4594.0048</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-205719.7073</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>82</v>
-      </c>
-      <c r="C81" t="n">
-        <v>82</v>
-      </c>
-      <c r="D81" t="n">
-        <v>82</v>
-      </c>
-      <c r="E81" t="n">
-        <v>82</v>
-      </c>
-      <c r="F81" t="n">
-        <v>21295.5612</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-205719.7073</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="C82" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="E82" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="F82" t="n">
-        <v>100</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-205819.7073</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="C83" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="D83" t="n">
-        <v>81.70999999999999</v>
-      </c>
-      <c r="E83" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9826.457</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-215646.1643</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3493,9 +3197,11 @@
         <v>-215636.1643</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -4159,16 +3865,18 @@
         <v>-199816.3336</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
       <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -4194,11 +3902,15 @@
         <v>-199807.0852999999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +3939,15 @@
         <v>-199812.8369999999</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4260,14 +3976,16 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4293,7 +4011,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4326,7 +4044,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4359,7 +4077,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4392,7 +4110,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4458,7 +4176,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4656,7 +4374,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4689,7 +4407,7 @@
         <v>-210844.9089</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4722,7 +4440,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4755,7 +4473,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4788,7 +4506,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4821,7 +4539,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4854,7 +4572,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4887,7 +4605,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4920,7 +4638,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4953,7 +4671,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4986,7 +4704,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5019,7 +4737,7 @@
         <v>-218234.7043</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5052,7 +4770,7 @@
         <v>-220554.7051</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5085,7 +4803,7 @@
         <v>-220554.7051</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5118,7 +4836,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5151,7 +4869,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5184,7 +4902,7 @@
         <v>-221221.7047</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5217,7 +4935,7 @@
         <v>-216249.2162</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5250,7 +4968,7 @@
         <v>-217098.464</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5283,7 +5001,7 @@
         <v>-217098.464</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5316,7 +5034,7 @@
         <v>-215454.971</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5349,7 +5067,7 @@
         <v>-215454.971</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5382,7 +5100,7 @@
         <v>-223388.47</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5415,7 +5133,7 @@
         <v>-223388.47</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5448,7 +5166,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5481,7 +5199,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5514,7 +5232,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5811,7 +5529,7 @@
         <v>-321515.0993</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5910,7 +5628,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5943,7 +5661,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6009,7 +5727,7 @@
         <v>-321394.0993</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7076,6 +6794,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-162813.7852</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-162813.7852</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-161013.7852</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-204856.5447</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-192975.7366</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,14 +2134,10 @@
         <v>-188342.7366</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>81.31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,17 +2167,11 @@
         <v>-188842.7366</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2210,17 +2200,11 @@
         <v>-188842.7366</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2282,7 +2266,7 @@
         <v>-182842.7366</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3008,14 +2992,10 @@
         <v>-210313.7121</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="J79" t="n">
-        <v>81.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3045,19 +3025,11 @@
         <v>-205719.7073</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3158,17 +3124,11 @@
         <v>-215646.1643</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>81.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3197,17 +3157,11 @@
         <v>-215636.1643</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>81.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3610,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3647,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3795,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3832,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3943,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3976,16 +3850,14 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4044,7 +3916,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4077,7 +3949,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4110,7 +3982,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4176,7 +4048,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4374,7 +4246,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4407,7 +4279,7 @@
         <v>-210844.9089</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4440,7 +4312,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4473,7 +4345,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4506,7 +4378,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4539,7 +4411,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4572,7 +4444,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4605,7 +4477,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4638,7 +4510,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4671,7 +4543,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4704,7 +4576,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4737,7 +4609,7 @@
         <v>-218234.7043</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4770,7 +4642,7 @@
         <v>-220554.7051</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4803,7 +4675,7 @@
         <v>-220554.7051</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4836,7 +4708,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4869,7 +4741,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4902,7 +4774,7 @@
         <v>-221221.7047</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4935,7 +4807,7 @@
         <v>-216249.2162</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4968,7 +4840,7 @@
         <v>-217098.464</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5001,7 +4873,7 @@
         <v>-217098.464</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5034,7 +4906,7 @@
         <v>-215454.971</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5067,7 +4939,7 @@
         <v>-215454.971</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5100,7 +4972,7 @@
         <v>-223388.47</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5133,7 +5005,7 @@
         <v>-223388.47</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5166,7 +5038,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5199,7 +5071,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5232,7 +5104,7 @@
         <v>-309465.1953</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5595,10 +5467,14 @@
         <v>-321294.5993</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="J154" t="n">
+        <v>81.84</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5631,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5664,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5694,10 +5582,14 @@
         <v>-321294.5993</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J157" t="n">
+        <v>81.90000000000001</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5730,8 +5622,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5763,8 +5661,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6794,6 +6698,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -1111,7 +1111,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-204856.5447</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-192975.7366</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-188342.7366</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-182842.7366</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-199812.8369999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-210480.2547</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-210238.0946</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-210844.9089</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5467,14 +5467,10 @@
         <v>-321294.5993</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="J154" t="n">
-        <v>81.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5507,267 +5503,255 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>597</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-321294.5993</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-321394.0993</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="D159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="E159" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4972.4885</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-326366.5878</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1623.0585</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-324743.5293</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="J160" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D161" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E161" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>882.2646</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-323861.2647</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C156" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D156" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E156" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F156" t="n">
-        <v>597</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>81.84</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E162" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="F162" t="n">
+        <v>846.9325</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-323861.2647</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>81.83</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="C157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="D157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="E157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F157" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-321394.0993</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="C159" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="D159" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="E159" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4972.4885</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-326366.5878</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>82.48999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1623.0585</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-324743.5293</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D161" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E161" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>882.2646</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C162" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D162" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E162" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="F162" t="n">
-        <v>846.9325</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6456,10 +6440,14 @@
         <v>-316912.8629</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="J183" t="n">
+        <v>82.59</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6492,8 +6480,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6516,19 @@
         <v>-316912.8629</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="J185" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6557,19 @@
         <v>-316912.8629</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="J186" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6598,19 @@
         <v>-309140.4454</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="J187" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6639,19 @@
         <v>-309140.4454</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J188" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6680,19 @@
         <v>-309140.4454</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J189" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6721,19 @@
         <v>-309140.4454</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J190" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-12 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11598</v>
       </c>
       <c r="G2" t="n">
-        <v>-162813.7852</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2555.1999</v>
       </c>
       <c r="G3" t="n">
-        <v>-162813.7852</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1800</v>
       </c>
       <c r="G4" t="n">
-        <v>-161013.7852</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,21 @@
         <v>21950.6063</v>
       </c>
       <c r="G5" t="n">
-        <v>-182964.3915</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +569,19 @@
         <v>6.2316</v>
       </c>
       <c r="G6" t="n">
-        <v>-182958.1599</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +603,19 @@
         <v>197</v>
       </c>
       <c r="G7" t="n">
-        <v>-182761.1599</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +637,19 @@
         <v>738.0304</v>
       </c>
       <c r="G8" t="n">
-        <v>-182761.1599</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,21 @@
         <v>64.9696</v>
       </c>
       <c r="G9" t="n">
-        <v>-182761.1599</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +707,21 @@
         <v>212.0059</v>
       </c>
       <c r="G10" t="n">
-        <v>-182973.1658</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +743,21 @@
         <v>7092.8375</v>
       </c>
       <c r="G11" t="n">
-        <v>-175880.3283</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,21 @@
         <v>10065</v>
       </c>
       <c r="G12" t="n">
-        <v>-165815.3283</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,19 @@
         <v>11000</v>
       </c>
       <c r="G13" t="n">
-        <v>-154815.3283</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +849,19 @@
         <v>29084.1953</v>
       </c>
       <c r="G14" t="n">
-        <v>-183899.5236</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +883,19 @@
         <v>9826.457</v>
       </c>
       <c r="G15" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +917,19 @@
         <v>3947.8553</v>
       </c>
       <c r="G16" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +951,19 @@
         <v>13774.3124</v>
       </c>
       <c r="G17" t="n">
-        <v>-174073.0666</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +985,19 @@
         <v>8717.950999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-182791.0176</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1019,19 @@
         <v>27326.3055</v>
       </c>
       <c r="G19" t="n">
-        <v>-210117.3231</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1053,19 @@
         <v>82690.4647</v>
       </c>
       <c r="G20" t="n">
-        <v>-292807.7878</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1087,19 @@
         <v>90179.2711</v>
       </c>
       <c r="G21" t="n">
-        <v>-202628.5167</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1121,19 @@
         <v>333.4604</v>
       </c>
       <c r="G22" t="n">
-        <v>-202961.9771</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1155,19 @@
         <v>3595.2297</v>
       </c>
       <c r="G23" t="n">
-        <v>-202961.9771</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1189,19 @@
         <v>1382.2163</v>
       </c>
       <c r="G24" t="n">
-        <v>-204344.1934</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1223,19 @@
         <v>1117.2329</v>
       </c>
       <c r="G25" t="n">
-        <v>-204344.1934</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1257,19 @@
         <v>456.8227</v>
       </c>
       <c r="G26" t="n">
-        <v>-204801.0161</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1291,19 @@
         <v>975.4424</v>
       </c>
       <c r="G27" t="n">
-        <v>-203825.5737</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1325,19 @@
         <v>15.9667</v>
       </c>
       <c r="G28" t="n">
-        <v>-203825.5737</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1359,19 @@
         <v>1030.971</v>
       </c>
       <c r="G29" t="n">
-        <v>-204856.5447</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1393,19 @@
         <v>5369.4619</v>
       </c>
       <c r="G30" t="n">
-        <v>-210226.0066</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1427,19 @@
         <v>680</v>
       </c>
       <c r="G31" t="n">
-        <v>-210906.0066</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1461,19 @@
         <v>310.8272</v>
       </c>
       <c r="G32" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1495,19 @@
         <v>1677.6772</v>
       </c>
       <c r="G33" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1529,19 @@
         <v>413.4006</v>
       </c>
       <c r="G34" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1563,19 @@
         <v>1175</v>
       </c>
       <c r="G35" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1597,19 @@
         <v>1796.4949</v>
       </c>
       <c r="G36" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1631,19 @@
         <v>1985.0003</v>
       </c>
       <c r="G37" t="n">
-        <v>-210595.1794</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1665,19 @@
         <v>59397.4866</v>
       </c>
       <c r="G38" t="n">
-        <v>-269992.666</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1699,19 @@
         <v>1681.967</v>
       </c>
       <c r="G39" t="n">
-        <v>-268310.699</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1733,19 @@
         <v>5797.8693</v>
       </c>
       <c r="G40" t="n">
-        <v>-262512.8296999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1767,19 @@
         <v>4275</v>
       </c>
       <c r="G41" t="n">
-        <v>-266787.8296999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1801,19 @@
         <v>13285.0024</v>
       </c>
       <c r="G42" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1835,19 @@
         <v>4893</v>
       </c>
       <c r="G43" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1869,19 @@
         <v>1130.3313</v>
       </c>
       <c r="G44" t="n">
-        <v>-280072.8320999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1903,19 @@
         <v>17563.3414</v>
       </c>
       <c r="G45" t="n">
-        <v>-262509.4907</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1937,19 @@
         <v>183.3398</v>
       </c>
       <c r="G46" t="n">
-        <v>-262326.1508999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1971,19 @@
         <v>280</v>
       </c>
       <c r="G47" t="n">
-        <v>-262606.1508999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2005,19 @@
         <v>186.8668</v>
       </c>
       <c r="G48" t="n">
-        <v>-262793.0177</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2039,19 @@
         <v>462.248</v>
       </c>
       <c r="G49" t="n">
-        <v>-262793.0177</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2073,19 @@
         <v>40624.7534</v>
       </c>
       <c r="G50" t="n">
-        <v>-222168.2643</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2107,19 @@
         <v>29216.4877</v>
       </c>
       <c r="G51" t="n">
-        <v>-192951.7766</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2141,19 @@
         <v>23.96</v>
       </c>
       <c r="G52" t="n">
-        <v>-192975.7366</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2175,19 @@
         <v>4633</v>
       </c>
       <c r="G53" t="n">
-        <v>-188342.7366</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2209,19 @@
         <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2243,19 @@
         <v>8971.7672</v>
       </c>
       <c r="G55" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2277,19 @@
         <v>7500</v>
       </c>
       <c r="G56" t="n">
-        <v>-188842.7366</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2311,19 @@
         <v>6000</v>
       </c>
       <c r="G57" t="n">
-        <v>-182842.7366</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2345,19 @@
         <v>830.0216</v>
       </c>
       <c r="G58" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2379,19 @@
         <v>1673.5331</v>
       </c>
       <c r="G59" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2413,19 @@
         <v>18124.39</v>
       </c>
       <c r="G60" t="n">
-        <v>-183672.7582</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2447,19 @@
         <v>659.6101</v>
       </c>
       <c r="G61" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2481,19 @@
         <v>16529.88461253191</v>
       </c>
       <c r="G62" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2515,19 @@
         <v>9355</v>
       </c>
       <c r="G63" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2549,19 @@
         <v>2329</v>
       </c>
       <c r="G64" t="n">
-        <v>-183013.1481</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2583,19 @@
         <v>541.2868999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-182471.8612</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2617,19 @@
         <v>46191.8509</v>
       </c>
       <c r="G66" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2651,19 @@
         <v>47135.5802</v>
       </c>
       <c r="G67" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2685,19 @@
         <v>11738.2464</v>
       </c>
       <c r="G68" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2719,19 @@
         <v>36897.0586</v>
       </c>
       <c r="G69" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2753,19 @@
         <v>980.2546</v>
       </c>
       <c r="G70" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2787,19 @@
         <v>554.2671</v>
       </c>
       <c r="G71" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2821,19 @@
         <v>47304.2285</v>
       </c>
       <c r="G72" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2855,19 @@
         <v>23941.7739</v>
       </c>
       <c r="G73" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2889,19 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2923,19 @@
         <v>3341.7523</v>
       </c>
       <c r="G75" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2957,19 @@
         <v>1002.5183</v>
       </c>
       <c r="G76" t="n">
-        <v>-228563.7121</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2991,19 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>-228663.7121</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3025,19 @@
         <v>18350</v>
       </c>
       <c r="G78" t="n">
-        <v>-210313.7121</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3059,19 @@
         <v>9886.704100000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-210313.7121</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3093,19 @@
         <v>4594.0048</v>
       </c>
       <c r="G80" t="n">
-        <v>-205719.7073</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3127,19 @@
         <v>21295.5612</v>
       </c>
       <c r="G81" t="n">
-        <v>-205719.7073</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3161,19 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-205819.7073</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3195,19 @@
         <v>9826.457</v>
       </c>
       <c r="G83" t="n">
-        <v>-215646.1643</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3229,19 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-215636.1643</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3263,19 @@
         <v>4135.1923</v>
       </c>
       <c r="G85" t="n">
-        <v>-219771.3566</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3297,19 @@
         <v>6.09</v>
       </c>
       <c r="G86" t="n">
-        <v>-219771.3566</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3331,19 @@
         <v>365.7177</v>
       </c>
       <c r="G87" t="n">
-        <v>-219405.6389</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3365,19 @@
         <v>13038.0607</v>
       </c>
       <c r="G88" t="n">
-        <v>-232443.6996</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3399,19 @@
         <v>31832.4044</v>
       </c>
       <c r="G89" t="n">
-        <v>-232443.6996</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3433,19 @@
         <v>214.9548</v>
       </c>
       <c r="G90" t="n">
-        <v>-232228.7448</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3467,19 @@
         <v>6.5742</v>
       </c>
       <c r="G91" t="n">
-        <v>-232228.7448</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3501,19 @@
         <v>0.2823</v>
       </c>
       <c r="G92" t="n">
-        <v>-232229.0270999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3535,19 @@
         <v>23.96</v>
       </c>
       <c r="G93" t="n">
-        <v>-232252.9870999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3569,19 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-232242.9870999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3603,19 @@
         <v>1920</v>
       </c>
       <c r="G95" t="n">
-        <v>-232242.9870999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3637,19 @@
         <v>23828.5837</v>
       </c>
       <c r="G96" t="n">
-        <v>-232242.9870999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3671,19 @@
         <v>3792.7441</v>
       </c>
       <c r="G97" t="n">
-        <v>-228450.2429999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3705,19 @@
         <v>6880.7251</v>
       </c>
       <c r="G98" t="n">
-        <v>-228450.2429999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3739,19 @@
         <v>27102.0922</v>
       </c>
       <c r="G99" t="n">
-        <v>-201348.1507999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3773,19 @@
         <v>546.3337</v>
       </c>
       <c r="G100" t="n">
-        <v>-200801.8171</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3807,19 @@
         <v>1011</v>
       </c>
       <c r="G101" t="n">
-        <v>-199790.8171</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3841,19 @@
         <v>25.5165</v>
       </c>
       <c r="G102" t="n">
-        <v>-199816.3336</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3875,19 @@
         <v>9.2483</v>
       </c>
       <c r="G103" t="n">
-        <v>-199807.0852999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3909,19 @@
         <v>5.7517</v>
       </c>
       <c r="G104" t="n">
-        <v>-199812.8369999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3943,19 @@
         <v>17091.5331</v>
       </c>
       <c r="G105" t="n">
-        <v>-216904.3700999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3977,19 @@
         <v>48397.677</v>
       </c>
       <c r="G106" t="n">
-        <v>-216904.3700999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4011,19 @@
         <v>6000</v>
       </c>
       <c r="G107" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4045,19 @@
         <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4079,19 @@
         <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4113,19 @@
         <v>8416.2132</v>
       </c>
       <c r="G110" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4147,19 @@
         <v>544.908</v>
       </c>
       <c r="G111" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4181,19 @@
         <v>1614.092</v>
       </c>
       <c r="G112" t="n">
-        <v>-210904.3700999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4215,19 @@
         <v>363.7247</v>
       </c>
       <c r="G113" t="n">
-        <v>-210540.6454</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4249,19 @@
         <v>60.3907</v>
       </c>
       <c r="G114" t="n">
-        <v>-210480.2547</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4283,19 @@
         <v>242.1601</v>
       </c>
       <c r="G115" t="n">
-        <v>-210238.0946</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4317,19 @@
         <v>364.39</v>
       </c>
       <c r="G116" t="n">
-        <v>-210602.4846</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4351,19 @@
         <v>493.04</v>
       </c>
       <c r="G117" t="n">
-        <v>-210602.4846</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4385,19 @@
         <v>242.4243</v>
       </c>
       <c r="G118" t="n">
-        <v>-210844.9089</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4419,19 @@
         <v>26.6395</v>
       </c>
       <c r="G119" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4453,19 @@
         <v>9147.360500000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4487,19 @@
         <v>1872.4388</v>
       </c>
       <c r="G121" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4521,19 @@
         <v>3780.896</v>
       </c>
       <c r="G122" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4555,19 @@
         <v>11342.9945</v>
       </c>
       <c r="G123" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4589,19 @@
         <v>13237.1946</v>
       </c>
       <c r="G124" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4623,19 @@
         <v>9047.6379</v>
       </c>
       <c r="G125" t="n">
-        <v>-210871.5484</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4657,19 @@
         <v>1474.5394</v>
       </c>
       <c r="G126" t="n">
-        <v>-212346.0878</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4691,19 @@
         <v>4414.077</v>
       </c>
       <c r="G127" t="n">
-        <v>-212346.0878</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4725,19 @@
         <v>5888.6165</v>
       </c>
       <c r="G128" t="n">
-        <v>-218234.7043</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4759,19 @@
         <v>2320.0008</v>
       </c>
       <c r="G129" t="n">
-        <v>-220554.7051</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4793,19 @@
         <v>97202.9734</v>
       </c>
       <c r="G130" t="n">
-        <v>-220554.7051</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4827,19 @@
         <v>64.6551</v>
       </c>
       <c r="G131" t="n">
-        <v>-220490.05</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4861,19 @@
         <v>4315.6988</v>
       </c>
       <c r="G132" t="n">
-        <v>-220490.05</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4895,19 @@
         <v>731.6547</v>
       </c>
       <c r="G133" t="n">
-        <v>-221221.7047</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4929,19 @@
         <v>4972.4885</v>
       </c>
       <c r="G134" t="n">
-        <v>-216249.2162</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4963,19 @@
         <v>849.2478</v>
       </c>
       <c r="G135" t="n">
-        <v>-217098.464</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4997,19 @@
         <v>8720.9123</v>
       </c>
       <c r="G136" t="n">
-        <v>-217098.464</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5031,19 @@
         <v>1643.493</v>
       </c>
       <c r="G137" t="n">
-        <v>-215454.971</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5065,19 @@
         <v>2010</v>
       </c>
       <c r="G138" t="n">
-        <v>-215454.971</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5099,19 @@
         <v>7933.499</v>
       </c>
       <c r="G139" t="n">
-        <v>-223388.47</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5133,19 @@
         <v>515</v>
       </c>
       <c r="G140" t="n">
-        <v>-223388.47</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5167,19 @@
         <v>86076.72530000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-309465.1953</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5201,19 @@
         <v>11500</v>
       </c>
       <c r="G142" t="n">
-        <v>-309465.1953</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5235,19 @@
         <v>24316.8021</v>
       </c>
       <c r="G143" t="n">
-        <v>-309465.1953</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5269,19 @@
         <v>20836.5505</v>
       </c>
       <c r="G144" t="n">
-        <v>-288628.6448</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5303,19 @@
         <v>184.1534</v>
       </c>
       <c r="G145" t="n">
-        <v>-288628.6448</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5337,19 @@
         <v>37.3756</v>
       </c>
       <c r="G146" t="n">
-        <v>-288666.0204</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5371,19 @@
         <v>774</v>
       </c>
       <c r="G147" t="n">
-        <v>-289440.0204</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5405,19 @@
         <v>12394.5056</v>
       </c>
       <c r="G148" t="n">
-        <v>-301834.526</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5439,19 @@
         <v>896.9999</v>
       </c>
       <c r="G149" t="n">
-        <v>-301834.526</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5473,19 @@
         <v>23234.455</v>
       </c>
       <c r="G150" t="n">
-        <v>-301834.526</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5507,19 @@
         <v>19680.5733</v>
       </c>
       <c r="G151" t="n">
-        <v>-321515.0993</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5541,19 @@
         <v>1628.6999</v>
       </c>
       <c r="G152" t="n">
-        <v>-321515.0993</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5575,19 @@
         <v>199.5</v>
       </c>
       <c r="G153" t="n">
-        <v>-321315.5993</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5609,19 @@
         <v>21</v>
       </c>
       <c r="G154" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5643,19 @@
         <v>56</v>
       </c>
       <c r="G155" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5677,19 @@
         <v>597</v>
       </c>
       <c r="G156" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5711,19 @@
         <v>298.5</v>
       </c>
       <c r="G157" t="n">
-        <v>-321294.5993</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5745,19 @@
         <v>99.5</v>
       </c>
       <c r="G158" t="n">
-        <v>-321394.0993</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5779,19 @@
         <v>4972.4885</v>
       </c>
       <c r="G159" t="n">
-        <v>-326366.5878</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,22 +5813,19 @@
         <v>1623.0585</v>
       </c>
       <c r="G160" t="n">
-        <v>-324743.5293</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="J160" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5699,24 +5847,19 @@
         <v>882.2646</v>
       </c>
       <c r="G161" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5738,24 +5881,19 @@
         <v>846.9325</v>
       </c>
       <c r="G162" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>81.83</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5777,18 +5915,19 @@
         <v>1541.4305</v>
       </c>
       <c r="G163" t="n">
-        <v>-323861.2647</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5810,18 +5949,19 @@
         <v>7527.6522</v>
       </c>
       <c r="G164" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5843,18 +5983,19 @@
         <v>6645.9937</v>
       </c>
       <c r="G165" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5876,18 +6017,19 @@
         <v>1077.8518</v>
       </c>
       <c r="G166" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5909,18 +6051,19 @@
         <v>5004.1901</v>
       </c>
       <c r="G167" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5942,18 +6085,19 @@
         <v>1706.383</v>
       </c>
       <c r="G168" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5975,18 +6119,19 @@
         <v>438.1241</v>
       </c>
       <c r="G169" t="n">
-        <v>-316333.6125</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6008,18 +6153,19 @@
         <v>3146.6139</v>
       </c>
       <c r="G170" t="n">
-        <v>-319480.2264</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6041,18 +6187,19 @@
         <v>2567.3635</v>
       </c>
       <c r="G171" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6074,18 +6221,19 @@
         <v>1854.2437</v>
       </c>
       <c r="G172" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6107,18 +6255,17 @@
         <v>3883.1649</v>
       </c>
       <c r="G173" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6140,18 +6287,15 @@
         <v>639.1917</v>
       </c>
       <c r="G174" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6173,18 +6317,15 @@
         <v>3136.0307</v>
       </c>
       <c r="G175" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6206,18 +6347,15 @@
         <v>48820.5466</v>
       </c>
       <c r="G176" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6239,18 +6377,15 @@
         <v>439.9291</v>
       </c>
       <c r="G177" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6272,18 +6407,15 @@
         <v>581.8745</v>
       </c>
       <c r="G178" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6305,18 +6437,15 @@
         <v>60.54001695120475</v>
       </c>
       <c r="G179" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6338,18 +6467,15 @@
         <v>1686.5059</v>
       </c>
       <c r="G180" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6371,18 +6497,15 @@
         <v>3183.7365</v>
       </c>
       <c r="G181" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6404,18 +6527,15 @@
         <v>1995.8868</v>
       </c>
       <c r="G182" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6437,22 +6557,15 @@
         <v>4190.257</v>
       </c>
       <c r="G183" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="J183" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6474,24 +6587,15 @@
         <v>9180.7263</v>
       </c>
       <c r="G184" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6513,26 +6617,15 @@
         <v>3684.772</v>
       </c>
       <c r="G185" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="J185" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6554,26 +6647,15 @@
         <v>2885.6435</v>
       </c>
       <c r="G186" t="n">
-        <v>-316912.8629</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="J186" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6595,26 +6677,15 @@
         <v>7772.4175</v>
       </c>
       <c r="G187" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="J187" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6636,26 +6707,15 @@
         <v>2430.1156</v>
       </c>
       <c r="G188" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="J188" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6677,26 +6737,15 @@
         <v>1482.7656</v>
       </c>
       <c r="G189" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="J189" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6718,26 +6767,15 @@
         <v>9639.2894</v>
       </c>
       <c r="G190" t="n">
-        <v>-309140.4454</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>82.59</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
